--- a/time spacing/words_V1.0.0.xlsx
+++ b/time spacing/words_V1.0.0.xlsx
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="2">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45330</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="3">
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45325</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45320</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="9">
@@ -602,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="11">
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="12">
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="13">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45320</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="14">
@@ -674,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45324</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="15">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45321</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="16">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45320</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="17">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="18">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="20">
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="23">
@@ -836,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="24">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>45324</v>
+        <v>45367</v>
       </c>
     </row>
     <row r="25">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>45321</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="26">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="28">
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>45337</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="29">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45330</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="30">
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="31">
@@ -980,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="32">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="34">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45320</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="35">
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45320</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="36">
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="37">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>45321</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="38">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>45330</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="39">
@@ -1124,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="40">
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="41">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>45320</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="42">
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="43">
@@ -1196,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="44">
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>45322</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="46">
@@ -1250,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="47">
@@ -1268,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="48">
@@ -1283,10 +1283,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>45326</v>
+        <v>45346</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>45320</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="50">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="51">
@@ -1340,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="52">
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="53">
@@ -1376,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="54">
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>45321</v>
+        <v>45354</v>
       </c>
     </row>
     <row r="55">
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>45320</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="56">
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>45325</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="57">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45330</v>
+        <v>45395</v>
       </c>
     </row>
     <row r="58">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45323</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="60">
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>45334</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="61">
@@ -1520,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="62">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>45332</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="63">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45320</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="64">
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45325</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="65">
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>45320</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="66">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>45326</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="67">
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>45320</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="68">
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>45320</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="69">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>45330</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="70">
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="71">
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>45320</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="72">
@@ -1718,7 +1718,7 @@
         <v>32</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="73">
@@ -1736,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="74">
@@ -1754,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="75">
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="76">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="77">
@@ -1805,10 +1805,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>45322</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="78">
@@ -1826,7 +1826,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="79">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>45320</v>
+        <v>45354</v>
       </c>
     </row>
     <row r="80">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>45323</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="82">
@@ -1898,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="83">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45320</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="84">
@@ -1934,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="85">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="86">
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="87">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>45321</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="88">
@@ -2006,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="89">
@@ -2024,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="90">
@@ -2039,10 +2039,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>45320</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="91">
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>45324</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="92">
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="93">
@@ -2096,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="94">
@@ -2114,7 +2114,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="95">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>45321</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="96">
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="97">
@@ -2168,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="98">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>45320</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="99">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="100">
@@ -2222,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="101">
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="102">
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="103">
@@ -2273,10 +2273,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="104">
@@ -2294,7 +2294,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="105">
@@ -2312,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="106">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>45320</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="107">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>45320</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="109">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>45320</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="110">
@@ -2402,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="111">
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>45324</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="112">
@@ -2435,10 +2435,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="113">
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>45320</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="114">
@@ -2474,7 +2474,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>45324</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="115">
@@ -2492,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="116">
@@ -2510,7 +2510,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>45327</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="117">
@@ -2528,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="118">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>45320</v>
+        <v>45347</v>
       </c>
     </row>
     <row r="119">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>45328</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="120">
@@ -2582,7 +2582,7 @@
         <v>16</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="121">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="122">
@@ -2618,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>45325</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="123">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="124">
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="125">
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="126">
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>45334</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="127">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>45320</v>
+        <v>45354</v>
       </c>
     </row>
     <row r="128">
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>45320</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="129">
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>45327</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="130">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>45321</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="131">
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45320</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="132">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>45320</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="133">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="134">
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="135">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="136">
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="137">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="138">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="139">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="140">
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>45320</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="141">
@@ -2966,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>45324</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="142">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="143">
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="144">
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="145">
@@ -3039,10 +3039,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>45328</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="146">
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="147">
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="148">
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="149">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="150">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="151">
@@ -3154,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>45328</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="152">
@@ -3173,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="153">
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="154">
@@ -3207,10 +3207,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="155">
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="156">
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="157">
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>45320</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="158">
@@ -3284,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="159">
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="160">
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="161">
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="162">
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="163">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="164">
@@ -3396,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="165">
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="166">
@@ -3432,7 +3432,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="167">
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="168">
@@ -3466,10 +3466,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="169">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>45324</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="170">
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="171">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="172">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="173">
@@ -3560,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="174">
@@ -3575,10 +3575,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>45328</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="175">
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="176">
@@ -3614,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="177">
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="178">
@@ -3650,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="179">
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="180">
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="181">
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="182">
@@ -3722,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="183">
@@ -3740,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="184">
@@ -3759,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="185">
@@ -3777,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>45323</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="186">
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="187">
@@ -3810,10 +3810,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="188">
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="189">
@@ -3849,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="190">
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="191">
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>45320</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="192">
@@ -3900,10 +3900,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="193">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="194">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="195">
@@ -3955,10 +3955,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>45320</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="196">
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="197">
@@ -3991,10 +3991,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>45320</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="198">
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="199">
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="200">
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="201">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>45320</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="202">
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="203">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="204">
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="205">
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="206">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="207">
@@ -4174,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="208">
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="209">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="210">
@@ -4225,10 +4225,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="211">
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>45324</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="212">
@@ -4261,10 +4261,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="213">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="214">
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="215">
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="216">
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="217">
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="218">
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="219">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="220">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="221">
@@ -4425,10 +4425,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>45320</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="222">
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="223">
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="224">
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="225">
@@ -4499,10 +4499,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="226">
@@ -4520,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="227">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="228">
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>45321</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="229">
@@ -4571,10 +4571,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="230">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="231">
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="232">
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="233">
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="234">
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="235">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D235" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="236">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>45323</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="237">
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="238">
@@ -4737,10 +4737,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="239">
@@ -4755,10 +4755,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="240">
@@ -4776,7 +4776,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>45324</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="241">
@@ -4791,10 +4791,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="242">
@@ -4809,10 +4809,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="243">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="244">
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="245">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="246">
@@ -4882,10 +4882,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>45320</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="247">
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="248">
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="249">
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="250">
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="251">
@@ -4975,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>45324</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="252">
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="253">
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="254">
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="255">
@@ -5047,10 +5047,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="256">
@@ -5065,10 +5065,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="257">
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="258">
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="259">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D259" s="1" t="n">
-        <v>45320</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="261">
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="262">
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="263">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="264">
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="265">
@@ -5227,10 +5227,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="266">
@@ -5245,10 +5245,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>45320</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="267">
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="268">
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D268" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="269">
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="270">
@@ -5318,10 +5318,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D270" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="271">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="272">
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="273">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="274">
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="275">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="276">
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="277">
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="278">
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="279">
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="280">
@@ -5501,10 +5501,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="281">
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="D281" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="282">
@@ -5540,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="283">
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="284">
@@ -5578,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="D284" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="285">
@@ -5595,10 +5595,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D285" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="286">
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="287">
@@ -5636,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="288">
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D288" s="1" t="n">
-        <v>45320</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="289">
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="290">
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="291">
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="D291" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="292">
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="293">
@@ -5747,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="D293" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="294">
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="295">
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="296">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="297">
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="298">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="299">
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="300">
@@ -5873,10 +5873,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="301">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="302">
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="303">
@@ -5928,10 +5928,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="304">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="305">
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="306">
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="307">
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="308">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="309">
@@ -6039,10 +6039,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D309" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="310">
@@ -6057,10 +6057,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D310" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="311">
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="D311" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="312">
@@ -6097,10 +6097,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D312" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="313">
@@ -6119,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="D313" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="314">
@@ -6137,10 +6137,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>45320</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="315">
@@ -6157,10 +6157,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D315" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="316">
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316" s="1" t="n">
-        <v>45320</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="317">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="318">
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="319">
@@ -6233,10 +6233,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D319" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="320">
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="321">
@@ -6275,10 +6275,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D321" s="1" t="n">
-        <v>45320</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="322">
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="323">
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="324">
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="325">
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D325" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="326">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="D326" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="327">
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="328">
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="329">
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="330">
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="331">
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>45320</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="332">
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="333">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="334">
@@ -6521,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="335">
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="336">
@@ -6557,7 +6557,7 @@
         <v>2</v>
       </c>
       <c r="D336" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="337">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="338">
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="339">
@@ -6610,10 +6610,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D339" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="340">
@@ -6631,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="341">
@@ -6646,10 +6646,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="342">
@@ -6664,10 +6664,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D342" s="1" t="n">
-        <v>45322</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="343">
@@ -6685,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="D343" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="344">
@@ -6706,7 +6706,7 @@
         <v>2</v>
       </c>
       <c r="D344" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="345">
@@ -6722,10 +6722,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>45320</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="346">
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="347">
@@ -6764,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="348">
@@ -6779,10 +6779,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="349">
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="350">
@@ -6817,10 +6817,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>45320</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="351">
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="352">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="D352" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="353">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D353" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="354">
@@ -6889,10 +6889,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D354" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="355">
@@ -6910,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="356">
@@ -6926,10 +6926,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D356" s="1" t="n">
-        <v>45320</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="357">
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="358">
@@ -6964,10 +6964,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D358" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="359">
@@ -6986,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="360">
@@ -7001,10 +7001,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D360" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="361">
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="362">
@@ -7037,10 +7037,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>45320</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="363">
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="364">
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="365">
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="366">
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="367">
@@ -7136,7 +7136,7 @@
         <v>2</v>
       </c>
       <c r="D367" s="1" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="368">
@@ -7154,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="369">
@@ -7171,10 +7171,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="370">
@@ -7194,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="371">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="D371" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="372">
@@ -7228,10 +7228,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D372" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="373">
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D373" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="374">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D374" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="375">
@@ -7286,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="376">
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="377">
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="D377" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="378">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="379">
@@ -7361,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="380">
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="D380" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="381">
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="382">
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>45320</v>
+        <v>45337</v>
       </c>
     </row>
   </sheetData>

--- a/time spacing/words_V1.0.0.xlsx
+++ b/time spacing/words_V1.0.0.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -436,11 +436,11 @@
           <t>(mysterious, creepy) étrange/inquiétant</t>
         </is>
       </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>45337</v>
+      <c r="C1" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -454,11 +454,11 @@
           <t>(on ship) mât/(flag)mât/(TV, radio)pylône/(Radio, téléphonie) antenne</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="1" t="n">
         <v>45369</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -472,11 +472,11 @@
           <t>(remains of ship)épave/naufrage/épave, ruine</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>45363</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -490,11 +490,11 @@
           <t>cinglant</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <v>45356</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -508,11 +508,11 @@
           <t>smug(adj)suffisant,imbu de soi-même</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>45337</v>
+      <c r="C5" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -526,11 +526,11 @@
           <t>Scorpion avec deux queux</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>45337</v>
+      <c r="C6" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -544,11 +544,11 @@
           <t>(coffin)cercueil/(small jewellery box)coffret,coffret à bijoux</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>45337</v>
+      <c r="C7" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -562,11 +562,11 @@
           <t>(great skill)Talent,habileté,capacité#(great valor, courage)bravoure</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>45337</v>
+      <c r="C8" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -580,11 +580,11 @@
           <t>D’un air grave, d’un air sombre</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>45338</v>
+      <c r="C9" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -598,11 +598,11 @@
           <t>circuler/grouiller/fourmiller(intransitive) to move about in a disorderly or aimless fashion</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>45337</v>
+      <c r="C10" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -616,11 +616,11 @@
           <t>grésillant,crépitant</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>45337</v>
+      <c r="C11" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -634,11 +634,11 @@
           <t>Scowl at sb=jeter un regard noir à qqn, regarder d’un mauvais oeil, fusiller qqn du regard</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>45337</v>
+      <c r="C12" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -652,11 +652,11 @@
           <t>stride=marcher à grand pas/marcher à grande enjambées</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>45353</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -670,11 +670,11 @@
           <t>siffler</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>45337</v>
+      <c r="C14" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -688,11 +688,11 @@
           <t>reluctantly=À contrecoeur/avec réticence</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>45368</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -706,11 +706,11 @@
           <t>seuil</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>45363</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -724,11 +724,11 @@
           <t>merrily</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -742,11 +742,11 @@
           <t>Plonk sth(UK)=laisser tomber lourdement qqch/jeter qqch#copper=en cuivre</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="C18" s="1" t="n">
         <v>45348</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -760,11 +760,11 @@
           <t>baver/saliver</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>45337</v>
+      <c r="C19" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -778,11 +778,11 @@
           <t>rooster=coq/(figuré)coq#plucked=(contexte)plumé#scrubbed=frotté/récuré/brossé</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>45337</v>
+      <c r="C20" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -796,11 +796,11 @@
           <t>kelpie=kelpie australien(chien de berger)</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -814,11 +814,11 @@
           <t>hoarsely=d’une voix rauque</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>45337</v>
+      <c r="C22" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -832,11 +832,11 @@
           <t>front/sourcil(abbréviation eyebrow)/expression facial/visage#His brow was troubled</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>45337</v>
+      <c r="C23" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -850,11 +850,11 @@
           <t>tabouret</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="C24" s="1" t="n">
         <v>45367</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -868,11 +868,11 @@
           <t>retch=avoir des haut-le-coeur#duck=se baisser (rapidement)/baisser la tête (rapidement)</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>45366</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -886,11 +886,11 @@
           <t>aube/aurore</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="n">
+      <c r="C26" s="1" t="n">
         <v>45351</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -904,11 +904,11 @@
           <t>(élève)appliqué/assidu (familier)fan/aimer</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="n">
+      <c r="C27" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -922,11 +922,11 @@
           <t>Avoir le hoquet/hoqueter</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>64</v>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>45401</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -940,11 +940,11 @@
           <t>strict/sévère/austère</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="C29" s="1" t="n">
         <v>45369</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -958,11 +958,11 @@
           <t>(personne)se laisser tomber/s’affaisser</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>45337</v>
+      <c r="C30" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -976,11 +976,11 @@
           <t>abasourdi/interloqué</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>45337</v>
+      <c r="C31" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -994,11 +994,11 @@
           <t>racaille</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>45337</v>
+      <c r="C32" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
           <t>grimacer/(familier)faire la tête</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>45337</v>
+      <c r="C33" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1030,11 +1030,11 @@
           <t>ensorcelé</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>16</v>
-      </c>
-      <c r="D34" s="1" t="n">
+      <c r="C34" s="1" t="n">
         <v>45342</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1048,11 +1048,11 @@
           <t>méprisant/hautaine</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>16</v>
-      </c>
-      <c r="D35" s="1" t="n">
+      <c r="C35" s="1" t="n">
         <v>45349</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1066,11 +1066,11 @@
           <t>Jeter un coup d’oeil</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>45337</v>
+      <c r="C36" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1084,11 +1084,11 @@
           <t>nerf/courage/cran</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1" t="n">
+      <c r="C37" s="1" t="n">
         <v>45353</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1102,11 +1102,11 @@
           <t>Du culot/toupet</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1" t="n">
+      <c r="C38" s="1" t="n">
         <v>45363</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1120,11 +1120,11 @@
           <t>affluer/se presser</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>45337</v>
+      <c r="C39" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1138,11 +1138,11 @@
           <t>envahir/se presser dans</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>45337</v>
+      <c r="C40" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1156,11 +1156,11 @@
           <t>draught=courant d’air/pression/(bière)pression#dame(échec)</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>32</v>
-      </c>
-      <c r="D41" s="1" t="n">
+      <c r="C41" s="1" t="n">
         <v>45363</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1174,11 +1174,11 @@
           <t>(UK, slang)ficher le camp/filer/prendre ses cliques et ses claques</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>45337</v>
+      <c r="C42" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1192,11 +1192,11 @@
           <t>lorgner/déshabiller du regard#Regarder méchamment</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>45337</v>
+      <c r="C43" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1210,11 +1210,11 @@
           <t>Marcher sur quelqu’un</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>32</v>
-      </c>
-      <c r="D44" s="1" t="n">
+      <c r="C44" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1228,11 +1228,11 @@
           <t>habitation/demeure/domicile</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>32</v>
-      </c>
-      <c r="D45" s="1" t="n">
+      <c r="C45" s="1" t="n">
         <v>45368</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1246,11 +1246,11 @@
           <t>scramble=brouiller#gravir/crapahuter#Se précipiter/se ruer</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>16</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>45337</v>
+      <c r="C46" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1264,11 +1264,11 @@
           <t>wary=méfiant/sur ses gardes/circonspect</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>45337</v>
+      <c r="C47" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1282,11 +1282,11 @@
           <t>Stifle [sth]=réprimer/retenir#étouffer/asphyxier/suffoquer#(figurative)étouffer/asphyxier</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>16</v>
-      </c>
-      <c r="D48" s="1" t="n">
+      <c r="C48" s="1" t="n">
         <v>45346</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1300,11 +1300,11 @@
           <t>Divination avec boule de crystal</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>16</v>
-      </c>
-      <c r="D49" s="1" t="n">
+      <c r="C49" s="1" t="n">
         <v>45353</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1318,11 +1318,11 @@
           <t>teinte</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>45337</v>
+      <c r="C50" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1336,11 +1336,11 @@
           <t>lande/tourbière</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>45337</v>
+      <c r="C51" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1354,11 +1354,11 @@
           <t>étaler/échelonner</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>45338</v>
+      <c r="C52" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1372,11 +1372,11 @@
           <t>boucher/obstruer/bloquer/engorger</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>45337</v>
+      <c r="C53" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1390,11 +1390,11 @@
           <t>détritus/déchets/ordures</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>32</v>
-      </c>
-      <c r="D54" s="1" t="n">
+      <c r="C54" s="1" t="n">
         <v>45354</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1408,11 +1408,11 @@
           <t>Marcher d’un pas lourd/marcher/ péniblement(familier) se traîner</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1" t="n">
+      <c r="C55" s="1" t="n">
         <v>45345</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1426,11 +1426,11 @@
           <t>Point de coté</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>32</v>
-      </c>
-      <c r="D56" s="1" t="n">
+      <c r="C56" s="1" t="n">
         <v>45363</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -1444,11 +1444,11 @@
           <t>étoilé</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>64</v>
-      </c>
-      <c r="D57" s="1" t="n">
+      <c r="C57" s="1" t="n">
         <v>45395</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1462,11 +1462,11 @@
           <t>nombril/ombilic</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>32</v>
-      </c>
-      <c r="D58" s="1" t="n">
+      <c r="C58" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1480,11 +1480,11 @@
           <t>Échalier (sorte d’échelle/marche)</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1" t="n">
+      <c r="C59" s="1" t="n">
         <v>45345</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -1498,11 +1498,11 @@
           <t>scrubby=brousailleux#Patch of ground=parcelle de terrain/terre</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>32</v>
-      </c>
-      <c r="D60" s="1" t="n">
+      <c r="C60" s="1" t="n">
         <v>45366</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1516,11 +1516,11 @@
           <t>Wag sth=(la queue)remuer#remuer/agiter</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>45337</v>
+      <c r="C61" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1534,11 +1534,11 @@
           <t>(soutien-gorge)bgretelle#(sac/cartable)bandoulière</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>64</v>
-      </c>
-      <c r="D62" s="1" t="n">
+      <c r="C62" s="1" t="n">
         <v>45398</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1552,11 +1552,11 @@
           <t>gnaw=ronger#Gnaw on sth=ronger</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>16</v>
-      </c>
-      <c r="D63" s="1" t="n">
+      <c r="C63" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -1570,11 +1570,11 @@
           <t>Furrow your brow=froncer les sourcils</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>32</v>
-      </c>
-      <c r="D64" s="1" t="n">
+      <c r="C64" s="1" t="n">
         <v>45357</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -1588,11 +1588,11 @@
           <t>shriek=hurler/crier#Shriek sth=hurler/crier</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>16</v>
-      </c>
-      <c r="D65" s="1" t="n">
+      <c r="C65" s="1" t="n">
         <v>45352</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -1606,11 +1606,11 @@
           <t>poised=prêt#Poised for sth=prêt à#Be poised to do sth=être sur le point de/être prêt à faire qq chose</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>16</v>
-      </c>
-      <c r="D66" s="1" t="n">
+      <c r="C66" s="1" t="n">
         <v>45350</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -1624,11 +1624,11 @@
           <t>Shunt sth=déplacer/pousser#Il s’est fait mettre de coté</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>16</v>
-      </c>
-      <c r="D67" s="1" t="n">
+      <c r="C67" s="1" t="n">
         <v>45349</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -1642,11 +1642,11 @@
           <t>bicker=se chamailler/se disputer</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>16</v>
-      </c>
-      <c r="D68" s="1" t="n">
+      <c r="C68" s="1" t="n">
         <v>45352</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -1660,11 +1660,11 @@
           <t>cunning(smart,clever)=malin/futé/astucieux#cunning(sly, deceptive)=(péjoratif)rusé/fourbe</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>32</v>
-      </c>
-      <c r="D69" s="1" t="n">
+      <c r="C69" s="1" t="n">
         <v>45366</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -1678,11 +1678,11 @@
           <t>dodgy(UK, informal)=peu solide#risqué/dangereux#louche/bizarre/suspect#Malhonnête#mauvais/médiocre</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>45337</v>
+      <c r="C70" s="1" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -1696,11 +1696,11 @@
           <t>pine=être en deuil#Pine to do sth=se languir de faire qqch/avoir très envie de faire qqch#Pine for sth/sb=se languir de qqch/qqn/avoir la nostalgie de qqch/qqn</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>16</v>
-      </c>
-      <c r="D71" s="1" t="n">
+      <c r="C71" s="1" t="n">
         <v>45350</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -1714,11 +1714,11 @@
           <t>in a way that shows you refuse or are not willing to do what you are told to do</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>32</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>45337</v>
+      <c r="C72" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1732,11 +1732,11 @@
           <t>sway=se balancer/(personne)chanceler</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>45337</v>
+      <c r="C73" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1750,11 +1750,11 @@
           <t>hearth=cheminée/foyer/(littéraire)âptre</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>45337</v>
+      <c r="C74" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1768,11 +1768,11 @@
           <t>lumpy=grumeleux/plein de grumeaux#lumpy=maladroit#tablecloth=nappe</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>45337</v>
+      <c r="C75" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -1786,11 +1786,11 @@
           <t>scoff=se moquer de qnqc#Scoff sth(UK, slang)=engloutir/(familier)s’enfiler/bouffer</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>8</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>45337</v>
+      <c r="C76" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1804,11 +1804,11 @@
           <t>Serpentin de fumée s’élevant</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>32</v>
-      </c>
-      <c r="D77" s="1" t="n">
+      <c r="C77" s="1" t="n">
         <v>45362</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -1822,11 +1822,11 @@
           <t>soar=monter en flèche/s’envoler#soar=s’élever dans les airs/s’envoler#soar(figurative)=monter/grimper en flèche</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>16</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>45337</v>
+      <c r="C78" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -1840,11 +1840,11 @@
           <t>Cradle sbh=bercer/tenir tendrement</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>32</v>
-      </c>
-      <c r="D79" s="1" t="n">
+      <c r="C79" s="1" t="n">
         <v>45354</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -1858,11 +1858,11 @@
           <t>Arracher qqch avec les dents/mordre</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>32</v>
-      </c>
-      <c r="D80" s="1" t="n">
+      <c r="C80" s="1" t="n">
         <v>45350</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -1876,11 +1876,11 @@
           <t>with beady eyes (= small, bright eyes like those of a bird), or very closely: She regarded him beadily in a way that suggested she knew he wasn't telling the truth</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>32</v>
-      </c>
-      <c r="D81" s="1" t="n">
+      <c r="C81" s="1" t="n">
         <v>45358</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -1894,11 +1894,11 @@
           <t>Surrogacy is an arrangement, often supported by a legal agreement, whereby a woman agrees to delivery/labour on behalf of another couple or person, who will become the child's parent after birth.</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>45337</v>
+      <c r="C82" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1912,11 +1912,11 @@
           <t>lurk=se cacher/se tapir/roder</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>16</v>
-      </c>
-      <c r="D83" s="1" t="n">
+      <c r="C83" s="1" t="n">
         <v>45353</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -1930,11 +1930,11 @@
           <t>Knead [sth]=pétrir/malaxer</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>4</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>45337</v>
+      <c r="C84" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -1948,11 +1948,11 @@
           <t>scrubbed=frotté/récuré/brossé</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>2</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>45337</v>
+      <c r="C85" s="1" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -1966,11 +1966,11 @@
           <t>callus=cal/durillon#Callosité#Corne#Calus#blister=ampoule/cloque</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>45337</v>
+      <c r="C86" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -1984,11 +1984,11 @@
           <t>Stir [sth]=mélanger</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>32</v>
-      </c>
-      <c r="D87" s="1" t="n">
+      <c r="C87" s="1" t="n">
         <v>45362</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -2002,11 +2002,11 @@
           <t>dustpan=pelle à poussière/pelle</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>16</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>45337</v>
+      <c r="C88" s="1" t="n">
+        <v>45370</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2020,11 +2020,11 @@
           <t>Couverts#coutellerie</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>8</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>45337</v>
+      <c r="C89" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2038,11 +2038,11 @@
           <t>casserole/poêlon</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>16</v>
-      </c>
-      <c r="D90" s="1" t="n">
+      <c r="C90" s="1" t="n">
         <v>45342</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -2056,11 +2056,11 @@
           <t>usé</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>32</v>
-      </c>
-      <c r="D91" s="1" t="n">
+      <c r="C91" s="1" t="n">
         <v>45365</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -2074,11 +2074,11 @@
           <t>haie</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>16</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>45338</v>
+      <c r="C92" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2092,11 +2092,11 @@
           <t>planer/faire du surplace/être en vol stationnaire</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>8</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>45337</v>
+      <c r="C93" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -2110,11 +2110,11 @@
           <t>Avec irritation/avec mauvaise humeur</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>8</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>45337</v>
+      <c r="C94" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -2128,11 +2128,11 @@
           <t>Shunt [sth]=déplacer/pousser</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>8</v>
-      </c>
-      <c r="D95" s="1" t="n">
+      <c r="C95" s="1" t="n">
         <v>45345</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -2146,11 +2146,11 @@
           <t>(bonne)gorgée/lampée</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>45337</v>
+      <c r="C96" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2164,11 +2164,11 @@
           <t>chèvrefeuille</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>45337</v>
+      <c r="C97" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2182,11 +2182,11 @@
           <t>crottin/bouse/fumier</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>16</v>
-      </c>
-      <c r="D98" s="1" t="n">
+      <c r="C98" s="1" t="n">
         <v>45349</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2200,11 +2200,11 @@
           <t>enchevêtrement</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>45337</v>
+      <c r="C99" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2218,11 +2218,11 @@
           <t>Rouse sb to sth = éveiller qq à qqch/susciter/provoquer</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>16</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>45337</v>
+      <c r="C100" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -2236,11 +2236,11 @@
           <t>Qui se tortille/se tord de douleur</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>45337</v>
+      <c r="C101" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2254,11 +2254,11 @@
           <t>borne(adj)=porté</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>4</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>45337</v>
+      <c r="C102" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -2272,11 +2272,11 @@
           <t>étouffant/suffocant(hot, uncomfortable)#(sexy, sexual) sensuel/voluptueux</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>4</v>
-      </c>
-      <c r="D103" s="1" t="n">
+      <c r="C103" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -2290,11 +2290,11 @@
           <t>bocal/pot</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>8</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <v>45337</v>
+      <c r="C104" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2308,11 +2308,11 @@
           <t>Bouffée#effluve</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>45337</v>
+      <c r="C105" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2326,11 +2326,11 @@
           <t>Tether sth to sth=Attacher qch à qch</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>16</v>
-      </c>
-      <c r="D106" s="1" t="n">
+      <c r="C106" s="1" t="n">
         <v>45349</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -2344,11 +2344,11 @@
           <t>Champ de citrouille</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>32</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>45337</v>
+      <c r="C107" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2362,11 +2362,11 @@
           <t>Keel over=défaillir/(familier)flancher</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>8</v>
-      </c>
-      <c r="D108" s="1" t="n">
+      <c r="C108" s="1" t="n">
         <v>45342</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -2380,11 +2380,11 @@
           <t>tramp=marcher d’un pas lourd</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="n">
+      <c r="C109" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -2398,11 +2398,11 @@
           <t>Gratté,raclé#(surface)rayé#(peau, genoux) éraflé, écorché</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>2</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>45337</v>
+      <c r="C110" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2416,11 +2416,11 @@
           <t>Noblement, avec noblesse, avec grandeur#Avec arrogance/avec dédain,avec mépris</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>4</v>
-      </c>
-      <c r="D111" s="1" t="n">
-        <v>45337</v>
+      <c r="C111" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -2434,11 +2434,11 @@
           <t>Pousser un soupir</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>16</v>
-      </c>
-      <c r="D112" s="1" t="n">
+      <c r="C112" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -2452,11 +2452,11 @@
           <t>Petit salon</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="n">
+      <c r="C113" s="1" t="n">
         <v>45345</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -2470,11 +2470,11 @@
           <t>entrouvert</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>16</v>
-      </c>
-      <c r="D114" s="1" t="n">
-        <v>45337</v>
+      <c r="C114" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -2488,11 +2488,11 @@
           <t>Indulgent, clément, tolérant</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>4</v>
-      </c>
-      <c r="D115" s="1" t="n">
-        <v>45337</v>
+      <c r="C115" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -2506,11 +2506,11 @@
           <t>muffled=(voix, son)étouffé#(bruit)sourd#(pas) feutré</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>8</v>
-      </c>
-      <c r="D116" s="1" t="n">
-        <v>45337</v>
+      <c r="C116" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2524,11 +2524,11 @@
           <t>remote(figurative)vague mince</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>4</v>
-      </c>
-      <c r="D117" s="1" t="n">
-        <v>45337</v>
+      <c r="C117" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -2542,11 +2542,11 @@
           <t>Scowl at [sb]=jeter un regard noir à qqn, regarder d’un mauvais oeil,</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>16</v>
-      </c>
-      <c r="D118" s="1" t="n">
+      <c r="C118" s="1" t="n">
         <v>45347</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -2560,11 +2560,11 @@
           <t>Marbré, tacheté, tavelé#Couvert de taches</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>32</v>
-      </c>
-      <c r="D119" s="1" t="n">
+      <c r="C119" s="1" t="n">
         <v>45366</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2578,11 +2578,11 @@
           <t>Furrow your brow=froncer les sourcils</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>16</v>
-      </c>
-      <c r="D120" s="1" t="n">
-        <v>45337</v>
+      <c r="C120" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -2596,11 +2596,11 @@
           <t>Qui glousse, qui rit bêtement</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>4</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>45337</v>
+      <c r="C121" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -2614,11 +2614,11 @@
           <t>escarpé/raide</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>16</v>
-      </c>
-      <c r="D122" s="1" t="n">
-        <v>45337</v>
+      <c r="C122" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -2632,11 +2632,11 @@
           <t>Qui trébuche</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>8</v>
-      </c>
-      <c r="D123" s="1" t="n">
-        <v>45337</v>
+      <c r="C123" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -2650,11 +2650,11 @@
           <t>Sorte en grimpant/escaladant</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="n">
-        <v>45337</v>
+      <c r="C124" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2668,11 +2668,11 @@
           <t>galet/caillou</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>8</v>
-      </c>
-      <c r="D125" s="1" t="n">
-        <v>45338</v>
+      <c r="C125" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -2686,11 +2686,11 @@
           <t>Crotte de nez</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>64</v>
-      </c>
-      <c r="D126" s="1" t="n">
+      <c r="C126" s="1" t="n">
         <v>45399</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -2704,11 +2704,11 @@
           <t>Déteindre sur qqn</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>32</v>
-      </c>
-      <c r="D127" s="1" t="n">
+      <c r="C127" s="1" t="n">
         <v>45354</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -2722,11 +2722,11 @@
           <t>ricaner/sourire avec mépris</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>16</v>
-      </c>
-      <c r="D128" s="1" t="n">
+      <c r="C128" s="1" t="n">
         <v>45352</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -2740,11 +2740,11 @@
           <t>L’air usé</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>8</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <v>45337</v>
+      <c r="C129" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -2758,11 +2758,11 @@
           <t>bossy=autoritaire/qui fait son petit chef</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>32</v>
-      </c>
-      <c r="D130" s="1" t="n">
+      <c r="C130" s="1" t="n">
         <v>45356</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -2776,11 +2776,11 @@
           <t>abasourdi/hébété</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>8</v>
-      </c>
-      <c r="D131" s="1" t="n">
+      <c r="C131" s="1" t="n">
         <v>45345</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -2794,11 +2794,11 @@
           <t>faiblement</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>16</v>
-      </c>
-      <c r="D132" s="1" t="n">
+      <c r="C132" s="1" t="n">
         <v>45352</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -2812,11 +2812,11 @@
           <t>Pat sth=(animal)caresser/donner une tape à qun/sur qch</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" s="1" t="n">
-        <v>45337</v>
+      <c r="C133" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -2830,11 +2830,11 @@
           <t>shudder=trembler/frémir</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>4</v>
-      </c>
-      <c r="D134" s="1" t="n">
-        <v>45337</v>
+      <c r="C134" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -2848,11 +2848,11 @@
           <t>capot</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>4</v>
-      </c>
-      <c r="D135" s="1" t="n">
-        <v>45337</v>
+      <c r="C135" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -2869,11 +2869,11 @@
 To give sth a wobble=secouer/secouer légèrement</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" s="1" t="n">
-        <v>45337</v>
+      <c r="C136" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2887,11 +2887,11 @@
           <t>Caramel mou</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>8</v>
-      </c>
-      <c r="D137" s="1" t="n">
-        <v>45337</v>
+      <c r="C137" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -2905,11 +2905,11 @@
           <t>Wear off=diminuer/s’atténuer/s’estomer</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>2</v>
-      </c>
-      <c r="D138" s="1" t="n">
-        <v>45337</v>
+      <c r="C138" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -2923,11 +2923,11 @@
           <t>purplish=pourpre/violet</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" s="1" t="n">
-        <v>45337</v>
+      <c r="C139" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2942,11 +2942,11 @@
 Skim sth(text)=parcourir rapidement/lire en diagonal</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>8</v>
-      </c>
-      <c r="D140" s="1" t="n">
+      <c r="C140" s="1" t="n">
         <v>45344</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -2962,11 +2962,11 @@
 (sentiments)qui diminue/qui s’amoindrit</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>4</v>
-      </c>
-      <c r="D141" s="1" t="n">
-        <v>45337</v>
+      <c r="C141" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -2982,11 +2982,11 @@
 (lumière)vaciller/clignoter</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>2</v>
-      </c>
-      <c r="D142" s="1" t="n">
-        <v>45338</v>
+      <c r="C142" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3002,11 +3002,11 @@
 chanceler/vaciller</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" s="1" t="n">
-        <v>45337</v>
+      <c r="C143" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3020,11 +3020,11 @@
           <t>son estomac s'est retourné</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>2</v>
-      </c>
-      <c r="D144" s="1" t="n">
-        <v>45337</v>
+      <c r="C144" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3038,11 +3038,11 @@
           <t>(figuratives) (joues) creux, creusé#(visage creusé)</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>16</v>
-      </c>
-      <c r="D145" s="1" t="n">
+      <c r="C145" s="1" t="n">
         <v>45350</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -3057,11 +3057,11 @@
 (landscape)morne/désolé</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" s="1" t="n">
-        <v>45337</v>
+      <c r="C146" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3077,11 +3077,11 @@
 Amener qqn (vers qqch)</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>2</v>
-      </c>
-      <c r="D147" s="1" t="n">
-        <v>45337</v>
+      <c r="C147" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3095,11 +3095,11 @@
           <t>(péjoratif)Vieille sorcière/vieille chouette/vieille peau</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>2</v>
-      </c>
-      <c r="D148" s="1" t="n">
-        <v>45337</v>
+      <c r="C148" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3113,11 +3113,11 @@
           <t>sorcier</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1" t="n">
-        <v>45337</v>
+      <c r="C149" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3131,11 +3131,11 @@
           <t>raucous(adj)=tapageur</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>8</v>
-      </c>
-      <c r="D150" s="1" t="n">
-        <v>45338</v>
+      <c r="C150" s="1" t="n">
+        <v>45354</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -3150,11 +3150,11 @@
 Squirt [sth]=faire gicler/faire jaillir/asperger</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>8</v>
-      </c>
-      <c r="D151" s="1" t="n">
-        <v>45337</v>
+      <c r="C151" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -3169,11 +3169,11 @@
 slab(UK)=table d’opération/table d’autopsie</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>2</v>
-      </c>
-      <c r="D152" s="1" t="n">
-        <v>45337</v>
+      <c r="C152" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3188,11 +3188,11 @@
 (figurative)=chahut/vacarme/pagaille</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="n">
-        <v>45337</v>
+      <c r="C153" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3206,11 +3206,11 @@
           <t>Trample [sth]=piétiner/fouler aux pieds</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>2</v>
-      </c>
-      <c r="D154" s="1" t="n">
-        <v>45337</v>
+      <c r="C154" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -3224,11 +3224,11 @@
           <t>omen=présage/signe/augure</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="n">
-        <v>45337</v>
+      <c r="C155" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3243,11 +3243,11 @@
 saluer qqn de la main,faire un signe de la main à qqn</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>2</v>
-      </c>
-      <c r="D156" s="1" t="n">
-        <v>45337</v>
+      <c r="C156" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3261,11 +3261,11 @@
           <t>Blowfly=mouche à viande</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>8</v>
-      </c>
-      <c r="D157" s="1" t="n">
+      <c r="C157" s="1" t="n">
         <v>45344</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -3280,11 +3280,11 @@
 ( soutenu)affligé</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="n">
-        <v>45337</v>
+      <c r="C158" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3300,11 +3300,11 @@
 (figurative)=monter/grimper en flèche</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>4</v>
-      </c>
-      <c r="D159" s="1" t="n">
-        <v>45337</v>
+      <c r="C159" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -3319,11 +3319,11 @@
 (figurative)propulser</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="n">
-        <v>45337</v>
+      <c r="C160" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -3338,11 +3338,11 @@
 soporifique</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>2</v>
-      </c>
-      <c r="D161" s="1" t="n">
-        <v>45337</v>
+      <c r="C161" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3356,11 +3356,11 @@
           <t>suinter/couler</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="n">
-        <v>45338</v>
+      <c r="C162" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3374,11 +3374,11 @@
           <t>dévisser</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>8</v>
-      </c>
-      <c r="D163" s="1" t="n">
-        <v>45337</v>
+      <c r="C163" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -3392,11 +3392,11 @@
           <t>tranche/écart</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>2</v>
-      </c>
-      <c r="D164" s="1" t="n">
-        <v>45337</v>
+      <c r="C164" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -3410,11 +3410,11 @@
           <t>baratté</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="n">
-        <v>45337</v>
+      <c r="C165" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3428,11 +3428,11 @@
           <t>Un tourbillon de couleurs ternes</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>2</v>
-      </c>
-      <c r="D166" s="1" t="n">
-        <v>45338</v>
+      <c r="C166" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -3447,11 +3447,11 @@
 Avec assurance/d’un pas assuré</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="n">
-        <v>45337</v>
+      <c r="C167" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3465,11 +3465,11 @@
           <t>fleurir</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>4</v>
-      </c>
-      <c r="D168" s="1" t="n">
-        <v>45337</v>
+      <c r="C168" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -3483,11 +3483,11 @@
           <t>acte/action</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>8</v>
-      </c>
-      <c r="D169" s="1" t="n">
+      <c r="C169" s="1" t="n">
         <v>45344</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -3502,11 +3502,11 @@
 Meddle in [sth]=se mêler de [qqch]</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="n">
-        <v>45337</v>
+      <c r="C170" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3520,11 +3520,11 @@
           <t>humeur</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="n">
-        <v>45337</v>
+      <c r="C171" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3538,11 +3538,11 @@
           <t>renouée (plante)</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="n">
-        <v>45337</v>
+      <c r="C172" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -3556,11 +3556,11 @@
           <t>désordre/(familier)pagaille/bazar</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>4</v>
-      </c>
-      <c r="D173" s="1" t="n">
-        <v>45337</v>
+      <c r="C173" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -3574,11 +3574,11 @@
           <t>faiblement</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>16</v>
-      </c>
-      <c r="D174" s="1" t="n">
+      <c r="C174" s="1" t="n">
         <v>45352</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -3592,11 +3592,11 @@
           <t>prowl=rôder</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>4</v>
-      </c>
-      <c r="D175" s="1" t="n">
-        <v>45337</v>
+      <c r="C175" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -3610,11 +3610,11 @@
           <t>riposter/contre-attaquer/se venger</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>4</v>
-      </c>
-      <c r="D176" s="1" t="n">
-        <v>45337</v>
+      <c r="C176" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -3628,11 +3628,11 @@
           <t>Blunder around=se déplacer maladroitement</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>4</v>
-      </c>
-      <c r="D177" s="1" t="n">
-        <v>45338</v>
+      <c r="C177" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -3646,11 +3646,11 @@
           <t>droop=pendre/tomber/s’affaisser</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>2</v>
-      </c>
-      <c r="D178" s="1" t="n">
-        <v>45337</v>
+      <c r="C178" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -3664,11 +3664,11 @@
           <t>Stir [sth]=mélanger</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>2</v>
-      </c>
-      <c r="D179" s="1" t="n">
-        <v>45337</v>
+      <c r="C179" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -3682,11 +3682,11 @@
           <t>Beckon [sb] =attirer/appeler</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>4</v>
-      </c>
-      <c r="D180" s="1" t="n">
-        <v>45337</v>
+      <c r="C180" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -3700,11 +3700,11 @@
           <t>bare=dévoiler/découvrir</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>4</v>
-      </c>
-      <c r="D181" s="1" t="n">
+      <c r="C181" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -3718,11 +3718,11 @@
           <t>perdu/confus</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>2</v>
-      </c>
-      <c r="D182" s="1" t="n">
-        <v>45337</v>
+      <c r="C182" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -3736,11 +3736,11 @@
           <t>shrewd=malin/futé/rusé</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1" t="n">
-        <v>45337</v>
+      <c r="C183" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3755,11 +3755,11 @@
 snigger=(US)ricanement/(UK)rire moqueur</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>2</v>
-      </c>
-      <c r="D184" s="1" t="n">
-        <v>45337</v>
+      <c r="C184" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -3773,11 +3773,11 @@
           <t>skulk=rôder</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>4</v>
-      </c>
-      <c r="D185" s="1" t="n">
-        <v>45337</v>
+      <c r="C185" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -3791,11 +3791,11 @@
           <t>dull=ennuyeux/sans intérêt/insipide</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>4</v>
-      </c>
-      <c r="D186" s="1" t="n">
-        <v>45337</v>
+      <c r="C186" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -3809,11 +3809,11 @@
           <t>drone=bourdonnement(ici)</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>2</v>
-      </c>
-      <c r="D187" s="1" t="n">
-        <v>45337</v>
+      <c r="C187" s="1" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -3827,11 +3827,11 @@
           <t>trance=(figurative)transe/rêverie</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>2</v>
-      </c>
-      <c r="D188" s="1" t="n">
-        <v>45337</v>
+      <c r="C188" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -3845,11 +3845,11 @@
           <t>chalk=craie</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>2</v>
-      </c>
-      <c r="D189" s="1" t="n">
-        <v>45337</v>
+      <c r="C189" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -3863,11 +3863,11 @@
           <t>faiblement/(voir)vaguement/indistinctement/(se souvenir)vaguement</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>4</v>
-      </c>
-      <c r="D190" s="1" t="n">
-        <v>45338</v>
+      <c r="C190" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -3881,11 +3881,11 @@
           <t>malaise/inquiétude</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>8</v>
-      </c>
-      <c r="D191" s="1" t="n">
+      <c r="C191" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -3899,11 +3899,11 @@
           <t>shudder=trembler/frémir</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>4</v>
-      </c>
-      <c r="D192" s="1" t="n">
-        <v>45337</v>
+      <c r="C192" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -3917,11 +3917,11 @@
           <t>mope=se morfondre/broyer du noir/trainer son ennui</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>4</v>
-      </c>
-      <c r="D193" s="1" t="n">
+      <c r="C193" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -3936,11 +3936,11 @@
 s’écailler/s’effriter</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>4</v>
-      </c>
-      <c r="D194" s="1" t="n">
-        <v>45337</v>
+      <c r="C194" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -3954,11 +3954,11 @@
           <t>Gond/charnière</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>4</v>
-      </c>
-      <c r="D195" s="1" t="n">
+      <c r="C195" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -3972,11 +3972,11 @@
           <t>citerne /cuve</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>2</v>
-      </c>
-      <c r="D196" s="1" t="n">
-        <v>45337</v>
+      <c r="C196" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -3990,11 +3990,11 @@
           <t>Percy s’est gonflé d’une manière</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>16</v>
-      </c>
-      <c r="D197" s="1" t="n">
+      <c r="C197" s="1" t="n">
         <v>45352</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -4008,11 +4008,11 @@
           <t>shrug=hausser les épaules</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>4</v>
-      </c>
-      <c r="D198" s="1" t="n">
+      <c r="C198" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -4026,11 +4026,11 @@
           <t>chivvy=(UK)presser/pousser (hurry or harass)</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>2</v>
-      </c>
-      <c r="D199" s="1" t="n">
-        <v>45337</v>
+      <c r="C199" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -4044,11 +4044,11 @@
           <t>Loathe sth/sb=détester/haïr (soutenu)exécrer</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1" t="n">
-        <v>45337</v>
+      <c r="C200" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4062,11 +4062,11 @@
           <t>(assis)être avachi/(debout)avoir le dos voûté</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>4</v>
-      </c>
-      <c r="D201" s="1" t="n">
+      <c r="C201" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -4080,11 +4080,11 @@
           <t>Grit his teeth=serrer les dents</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>1</v>
-      </c>
-      <c r="D202" s="1" t="n">
-        <v>45338</v>
+      <c r="C202" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -4098,11 +4098,11 @@
           <t>Les minutes s’écoulent</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="n">
-        <v>45337</v>
+      <c r="C203" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4116,11 +4116,11 @@
           <t>(person)changeant/inconstant/capricieux</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="n">
-        <v>45337</v>
+      <c r="C204" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4134,11 +4134,11 @@
           <t>douloureux/courbaturé</t>
         </is>
       </c>
-      <c r="C205" t="n">
-        <v>1</v>
-      </c>
-      <c r="D205" s="1" t="n">
-        <v>45337</v>
+      <c r="C205" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -4152,11 +4152,11 @@
           <t>Bavardage prattle(vi)=parler/(famillier)bavasser/blablater/jacasser/papoter</t>
         </is>
       </c>
-      <c r="C206" t="n">
-        <v>1</v>
-      </c>
-      <c r="D206" s="1" t="n">
-        <v>45337</v>
+      <c r="C206" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4170,11 +4170,11 @@
           <t>Une voix à faire froid dans le dos</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>1</v>
-      </c>
-      <c r="D207" s="1" t="n">
-        <v>45337</v>
+      <c r="C207" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4188,11 +4188,11 @@
           <t>perplexe/hésitant/indécis</t>
         </is>
       </c>
-      <c r="C208" t="n">
-        <v>1</v>
-      </c>
-      <c r="D208" s="1" t="n">
-        <v>45337</v>
+      <c r="C208" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4206,11 +4206,11 @@
           <t>endormi/somnolent/avoir envie de dormir</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>4</v>
-      </c>
-      <c r="D209" s="1" t="n">
-        <v>45337</v>
+      <c r="C209" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -4224,11 +4224,11 @@
           <t>Fly</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>2</v>
-      </c>
-      <c r="D210" s="1" t="n">
-        <v>45337</v>
+      <c r="C210" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -4242,11 +4242,11 @@
           <t>Il tendait l’oreille pour entendre …</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v>8</v>
-      </c>
-      <c r="D211" s="1" t="n">
+      <c r="C211" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -4260,11 +4260,11 @@
           <t>abasourdi/hébété</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>4</v>
-      </c>
-      <c r="D212" s="1" t="n">
-        <v>45337</v>
+      <c r="C212" s="1" t="n">
+        <v>45346</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -4278,11 +4278,11 @@
           <t>se sont contractés</t>
         </is>
       </c>
-      <c r="C213" t="n">
-        <v>2</v>
-      </c>
-      <c r="D213" s="1" t="n">
-        <v>45337</v>
+      <c r="C213" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -4296,11 +4296,11 @@
           <t>Un froid humide</t>
         </is>
       </c>
-      <c r="C214" t="n">
-        <v>2</v>
-      </c>
-      <c r="D214" s="1" t="n">
-        <v>45337</v>
+      <c r="C214" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -4314,11 +4314,11 @@
           <t>Une recrudescence/série</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v>1</v>
-      </c>
-      <c r="D215" s="1" t="n">
-        <v>45337</v>
+      <c r="C215" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4332,11 +4332,11 @@
           <t>enfler, se gonfler,</t>
         </is>
       </c>
-      <c r="C216" t="n">
-        <v>1</v>
-      </c>
-      <c r="D216" s="1" t="n">
-        <v>45337</v>
+      <c r="C216" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4352,11 +4352,11 @@
 atténué</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>1</v>
-      </c>
-      <c r="D217" s="1" t="n">
-        <v>45337</v>
+      <c r="C217" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4370,11 +4370,11 @@
           <t>trempé</t>
         </is>
       </c>
-      <c r="C218" t="n">
-        <v>4</v>
-      </c>
-      <c r="D218" s="1" t="n">
-        <v>45337</v>
+      <c r="C218" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -4388,11 +4388,11 @@
           <t>patauger</t>
         </is>
       </c>
-      <c r="C219" t="n">
-        <v>4</v>
-      </c>
-      <c r="D219" s="1" t="n">
-        <v>45337</v>
+      <c r="C219" s="1" t="n">
+        <v>45346</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -4406,11 +4406,11 @@
           <t>minable/miteux</t>
         </is>
       </c>
-      <c r="C220" t="n">
-        <v>1</v>
-      </c>
-      <c r="D220" s="1" t="n">
-        <v>45337</v>
+      <c r="C220" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -4424,11 +4424,11 @@
           <t>souffle coupé</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>8</v>
-      </c>
-      <c r="D221" s="1" t="n">
+      <c r="C221" s="1" t="n">
         <v>45345</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -4443,11 +4443,11 @@
 manacle (sb)=menotter (qqn)</t>
         </is>
       </c>
-      <c r="C222" t="n">
-        <v>1</v>
-      </c>
-      <c r="D222" s="1" t="n">
-        <v>45337</v>
+      <c r="C222" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4461,11 +4461,11 @@
           <t>havoc=ravages/dégats/dévastation</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>1</v>
-      </c>
-      <c r="D223" s="1" t="n">
-        <v>45337</v>
+      <c r="C223" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4479,11 +4479,11 @@
           <t>sheaf=liasse, gerbe/paquet, faisceau</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v>1</v>
-      </c>
-      <c r="D224" s="1" t="n">
-        <v>45337</v>
+      <c r="C224" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4498,11 +4498,11 @@
 Tidal wave=raz de marée</t>
         </is>
       </c>
-      <c r="C225" t="n">
-        <v>2</v>
-      </c>
-      <c r="D225" s="1" t="n">
-        <v>45337</v>
+      <c r="C225" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -4516,11 +4516,11 @@
           <t>squashy=mou,molle/moelleux</t>
         </is>
       </c>
-      <c r="C226" t="n">
-        <v>2</v>
-      </c>
-      <c r="D226" s="1" t="n">
-        <v>45337</v>
+      <c r="C226" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -4534,11 +4534,11 @@
           <t>smoulder=se consumer/brûler lentement</t>
         </is>
       </c>
-      <c r="C227" t="n">
-        <v>4</v>
-      </c>
-      <c r="D227" s="1" t="n">
-        <v>45337</v>
+      <c r="C227" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -4552,11 +4552,11 @@
           <t>knot=groupe</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>4</v>
-      </c>
-      <c r="D228" s="1" t="n">
+      <c r="C228" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -4570,11 +4570,11 @@
           <t>La salamandre s’est envolée dans les airs</t>
         </is>
       </c>
-      <c r="C229" t="n">
-        <v>2</v>
-      </c>
-      <c r="D229" s="1" t="n">
-        <v>45337</v>
+      <c r="C229" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -4588,11 +4588,11 @@
           <t>whirl=tourbillonner/tournoyer</t>
         </is>
       </c>
-      <c r="C230" t="n">
-        <v>2</v>
-      </c>
-      <c r="D230" s="1" t="n">
-        <v>45337</v>
+      <c r="C230" s="1" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -4609,11 +4609,11 @@
 dreadful=mal/to look dreadful avoir mauvaise mine</t>
         </is>
       </c>
-      <c r="C231" t="n">
-        <v>1</v>
-      </c>
-      <c r="D231" s="1" t="n">
-        <v>45337</v>
+      <c r="C231" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -4627,11 +4627,11 @@
           <t>glum=morose,sombre/abattu</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>1</v>
-      </c>
-      <c r="D232" s="1" t="n">
-        <v>45337</v>
+      <c r="C232" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4645,11 +4645,11 @@
           <t>sulkily=en boudant</t>
         </is>
       </c>
-      <c r="C233" t="n">
-        <v>2</v>
-      </c>
-      <c r="D233" s="1" t="n">
-        <v>45337</v>
+      <c r="C233" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -4663,11 +4663,11 @@
           <t>Nudge sb=donner un petit coup de coude à</t>
         </is>
       </c>
-      <c r="C234" t="n">
-        <v>1</v>
-      </c>
-      <c r="D234" s="1" t="n">
-        <v>45337</v>
+      <c r="C234" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -4682,11 +4682,11 @@
 mope=se morfondre/broyer du noir</t>
         </is>
       </c>
-      <c r="C235" t="n">
-        <v>4</v>
-      </c>
-      <c r="D235" s="1" t="n">
-        <v>45337</v>
+      <c r="C235" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -4700,11 +4700,11 @@
           <t>guffaw=gros rire</t>
         </is>
       </c>
-      <c r="C236" t="n">
-        <v>8</v>
-      </c>
-      <c r="D236" s="1" t="n">
-        <v>45337</v>
+      <c r="C236" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -4718,11 +4718,11 @@
           <t>clatter=cliqueter/s’entrechoquer</t>
         </is>
       </c>
-      <c r="C237" t="n">
-        <v>1</v>
-      </c>
-      <c r="D237" s="1" t="n">
-        <v>45337</v>
+      <c r="C237" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4736,11 +4736,11 @@
           <t>Harry a tendu l’oreille</t>
         </is>
       </c>
-      <c r="C238" t="n">
-        <v>2</v>
-      </c>
-      <c r="D238" s="1" t="n">
-        <v>45337</v>
+      <c r="C238" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -4754,11 +4754,11 @@
           <t>agitation/remue-ménage</t>
         </is>
       </c>
-      <c r="C239" t="n">
-        <v>2</v>
-      </c>
-      <c r="D239" s="1" t="n">
-        <v>45337</v>
+      <c r="C239" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -4772,11 +4772,11 @@
           <t>hurler/crier</t>
         </is>
       </c>
-      <c r="C240" t="n">
-        <v>4</v>
-      </c>
-      <c r="D240" s="1" t="n">
-        <v>45337</v>
+      <c r="C240" s="1" t="n">
+        <v>45346</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -4790,11 +4790,11 @@
           <t>Prod sth/sb=donner un petit coup</t>
         </is>
       </c>
-      <c r="C241" t="n">
-        <v>4</v>
-      </c>
-      <c r="D241" s="1" t="n">
-        <v>45337</v>
+      <c r="C241" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -4808,11 +4808,11 @@
           <t>peculiar=étrange/bizarre/particulier</t>
         </is>
       </c>
-      <c r="C242" t="n">
-        <v>2</v>
-      </c>
-      <c r="D242" s="1" t="n">
-        <v>45337</v>
+      <c r="C242" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -4826,11 +4826,11 @@
           <t>loom=(figurative (look big, intimidating)se profiler/se dessiner</t>
         </is>
       </c>
-      <c r="C243" t="n">
-        <v>4</v>
-      </c>
-      <c r="D243" s="1" t="n">
-        <v>45338</v>
+      <c r="C243" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -4845,11 +4845,11 @@
 Foreboding sense=sens prohétique</t>
         </is>
       </c>
-      <c r="C244" t="n">
-        <v>1</v>
-      </c>
-      <c r="D244" s="1" t="n">
-        <v>45337</v>
+      <c r="C244" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -4863,11 +4863,11 @@
           <t>pleurer</t>
         </is>
       </c>
-      <c r="C245" t="n">
-        <v>1</v>
-      </c>
-      <c r="D245" s="1" t="n">
-        <v>45337</v>
+      <c r="C245" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -4881,11 +4881,11 @@
           <t>sprout =germer/pousser/(figurative)pousser comme des champignons</t>
         </is>
       </c>
-      <c r="C246" t="n">
-        <v>2</v>
-      </c>
-      <c r="D246" s="1" t="n">
+      <c r="C246" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -4899,11 +4899,11 @@
           <t>churning=agité</t>
         </is>
       </c>
-      <c r="C247" t="n">
-        <v>1</v>
-      </c>
-      <c r="D247" s="1" t="n">
-        <v>45337</v>
+      <c r="C247" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -4917,11 +4917,11 @@
           <t>faiblement/(voir)vaguement/indistinctement/(se souvenir)vaguement</t>
         </is>
       </c>
-      <c r="C248" t="n">
-        <v>1</v>
-      </c>
-      <c r="D248" s="1" t="n">
-        <v>45337</v>
+      <c r="C248" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -4935,11 +4935,11 @@
           <t>Splutter [sth]=bafouiller/bredouiller/balbutier</t>
         </is>
       </c>
-      <c r="C249" t="n">
-        <v>1</v>
-      </c>
-      <c r="D249" s="1" t="n">
-        <v>45338</v>
+      <c r="C249" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -4953,11 +4953,11 @@
           <t>Dernières miettes(repas)</t>
         </is>
       </c>
-      <c r="C250" t="n">
-        <v>1</v>
-      </c>
-      <c r="D250" s="1" t="n">
-        <v>45337</v>
+      <c r="C250" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -4971,11 +4971,11 @@
           <t>encourager</t>
         </is>
       </c>
-      <c r="C251" t="n">
-        <v>4</v>
-      </c>
-      <c r="D251" s="1" t="n">
-        <v>45337</v>
+      <c r="C251" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -4990,11 +4990,11 @@
 =(familier)se faire du mauvais sang/se faire de la bile/se faire du mouron</t>
         </is>
       </c>
-      <c r="C252" t="n">
-        <v>1</v>
-      </c>
-      <c r="D252" s="1" t="n">
-        <v>45337</v>
+      <c r="C252" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5010,11 +5010,11 @@
 courageux, brave, vaillant</t>
         </is>
       </c>
-      <c r="C253" t="n">
-        <v>2</v>
-      </c>
-      <c r="D253" s="1" t="n">
-        <v>45337</v>
+      <c r="C253" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -5028,11 +5028,11 @@
           <t>Bandy sth about/bandy about sth=faire circuler (spread ideas about)</t>
         </is>
       </c>
-      <c r="C254" t="n">
-        <v>1</v>
-      </c>
-      <c r="D254" s="1" t="n">
-        <v>45337</v>
+      <c r="C254" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5046,11 +5046,11 @@
           <t>coq</t>
         </is>
       </c>
-      <c r="C255" t="n">
-        <v>4</v>
-      </c>
-      <c r="D255" s="1" t="n">
+      <c r="C255" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -5064,11 +5064,11 @@
           <t>(UK) Courant d’air</t>
         </is>
       </c>
-      <c r="C256" t="n">
-        <v>4</v>
-      </c>
-      <c r="D256" s="1" t="n">
-        <v>45337</v>
+      <c r="C256" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -5082,11 +5082,11 @@
           <t>débandade/fuite/ruée/bousculade</t>
         </is>
       </c>
-      <c r="C257" t="n">
-        <v>1</v>
-      </c>
-      <c r="D257" s="1" t="n">
-        <v>45337</v>
+      <c r="C257" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -5100,11 +5100,11 @@
           <t>Bound to do sth=(figurative)forcément/(familier)c’est obligé/c’est forcé</t>
         </is>
       </c>
-      <c r="C258" t="n">
-        <v>1</v>
-      </c>
-      <c r="D258" s="1" t="n">
-        <v>45337</v>
+      <c r="C258" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5118,11 +5118,11 @@
           <t>Glint =lueur</t>
         </is>
       </c>
-      <c r="C259" t="n">
-        <v>4</v>
-      </c>
-      <c r="D259" s="1" t="n">
+      <c r="C259" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -5136,11 +5136,11 @@
           <t>sévèrement</t>
         </is>
       </c>
-      <c r="C260" t="n">
-        <v>2</v>
-      </c>
-      <c r="D260" s="1" t="n">
-        <v>45337</v>
+      <c r="C260" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -5154,11 +5154,11 @@
           <t>Keel over(figurative)=défaillir/(familier)flancher</t>
         </is>
       </c>
-      <c r="C261" t="n">
-        <v>2</v>
-      </c>
-      <c r="D261" s="1" t="n">
-        <v>45337</v>
+      <c r="C261" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -5172,11 +5172,11 @@
           <t>Ladle [sth]=servir [qqch] à/avec la louche</t>
         </is>
       </c>
-      <c r="C262" t="n">
-        <v>1</v>
-      </c>
-      <c r="D262" s="1" t="n">
-        <v>45337</v>
+      <c r="C262" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -5190,11 +5190,11 @@
           <t>froth=écumer/mousser/baver</t>
         </is>
       </c>
-      <c r="C263" t="n">
-        <v>1</v>
-      </c>
-      <c r="D263" s="1" t="n">
-        <v>45337</v>
+      <c r="C263" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5208,11 +5208,11 @@
           <t>miteux/minable/(vêtements)râpé/élimé/usé/(meubles(abimé)</t>
         </is>
       </c>
-      <c r="C264" t="n">
-        <v>1</v>
-      </c>
-      <c r="D264" s="1" t="n">
-        <v>45337</v>
+      <c r="C264" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5226,11 +5226,11 @@
           <t>Qui glousse/qui rit bêtement</t>
         </is>
       </c>
-      <c r="C265" t="n">
-        <v>2</v>
-      </c>
-      <c r="D265" s="1" t="n">
-        <v>45337</v>
+      <c r="C265" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -5244,11 +5244,11 @@
           <t>Grass on [sb](UK, slang)=dénoncer/(familier)balancer</t>
         </is>
       </c>
-      <c r="C266" t="n">
-        <v>4</v>
-      </c>
-      <c r="D266" s="1" t="n">
+      <c r="C266" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -5262,11 +5262,11 @@
           <t>desincarné</t>
         </is>
       </c>
-      <c r="C267" t="n">
-        <v>2</v>
-      </c>
-      <c r="D267" s="1" t="n">
-        <v>45337</v>
+      <c r="C267" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -5280,11 +5280,11 @@
           <t>shrug=hausser les épaules</t>
         </is>
       </c>
-      <c r="C268" t="n">
-        <v>4</v>
-      </c>
-      <c r="D268" s="1" t="n">
-        <v>45337</v>
+      <c r="C268" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -5298,11 +5298,11 @@
           <t>faible/fébrile</t>
         </is>
       </c>
-      <c r="C269" t="n">
-        <v>1</v>
-      </c>
-      <c r="D269" s="1" t="n">
-        <v>45337</v>
+      <c r="C269" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -5317,11 +5317,11 @@
 abruptement, fortement</t>
         </is>
       </c>
-      <c r="C270" t="n">
-        <v>4</v>
-      </c>
-      <c r="D270" s="1" t="n">
-        <v>45338</v>
+      <c r="C270" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -5335,11 +5335,11 @@
           <t>thud=faire un bruit sourd</t>
         </is>
       </c>
-      <c r="C271" t="n">
-        <v>2</v>
-      </c>
-      <c r="D271" s="1" t="n">
-        <v>45337</v>
+      <c r="C271" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -5353,11 +5353,11 @@
           <t>loucher, plisser les yeux</t>
         </is>
       </c>
-      <c r="C272" t="n">
-        <v>1</v>
-      </c>
-      <c r="D272" s="1" t="n">
-        <v>45337</v>
+      <c r="C272" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -5371,11 +5371,11 @@
           <t>Ca alors, mon dieu</t>
         </is>
       </c>
-      <c r="C273" t="n">
-        <v>1</v>
-      </c>
-      <c r="D273" s="1" t="n">
-        <v>45337</v>
+      <c r="C273" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5389,11 +5389,11 @@
           <t>(peau)muer/perdre</t>
         </is>
       </c>
-      <c r="C274" t="n">
-        <v>1</v>
-      </c>
-      <c r="D274" s="1" t="n">
-        <v>45337</v>
+      <c r="C274" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -5407,11 +5407,11 @@
           <t>haleter/être à bout de souffle/être essoufflé</t>
         </is>
       </c>
-      <c r="C275" t="n">
-        <v>1</v>
-      </c>
-      <c r="D275" s="1" t="n">
-        <v>45337</v>
+      <c r="C275" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -5425,11 +5425,11 @@
           <t>soubresaut/à-coup</t>
         </is>
       </c>
-      <c r="C276" t="n">
-        <v>1</v>
-      </c>
-      <c r="D276" s="1" t="n">
-        <v>45337</v>
+      <c r="C276" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5444,11 +5444,11 @@
 pendre, tomber</t>
         </is>
       </c>
-      <c r="C277" t="n">
-        <v>1</v>
-      </c>
-      <c r="D277" s="1" t="n">
-        <v>45337</v>
+      <c r="C277" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -5463,11 +5463,11 @@
 malheur, souci</t>
         </is>
       </c>
-      <c r="C278" t="n">
-        <v>1</v>
-      </c>
-      <c r="D278" s="1" t="n">
-        <v>45338</v>
+      <c r="C278" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -5482,11 +5482,11 @@
 s’évanouir</t>
         </is>
       </c>
-      <c r="C279" t="n">
-        <v>1</v>
-      </c>
-      <c r="D279" s="1" t="n">
-        <v>45337</v>
+      <c r="C279" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -5500,11 +5500,11 @@
           <t>putois</t>
         </is>
       </c>
-      <c r="C280" t="n">
-        <v>2</v>
-      </c>
-      <c r="D280" s="1" t="n">
-        <v>45337</v>
+      <c r="C280" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -5518,11 +5518,11 @@
           <t>grenier, mansarde</t>
         </is>
       </c>
-      <c r="C281" t="n">
-        <v>1</v>
-      </c>
-      <c r="D281" s="1" t="n">
-        <v>45337</v>
+      <c r="C281" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -5536,11 +5536,11 @@
           <t>(entasser/fourrer/bourrer) qqch dans qqch,</t>
         </is>
       </c>
-      <c r="C282" t="n">
-        <v>1</v>
-      </c>
-      <c r="D282" s="1" t="n">
-        <v>45337</v>
+      <c r="C282" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -5555,11 +5555,11 @@
 peu/mal éclairé</t>
         </is>
       </c>
-      <c r="C283" t="n">
-        <v>1</v>
-      </c>
-      <c r="D283" s="1" t="n">
-        <v>45337</v>
+      <c r="C283" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -5574,11 +5574,11 @@
 faire sursauter</t>
         </is>
       </c>
-      <c r="C284" t="n">
-        <v>2</v>
-      </c>
-      <c r="D284" s="1" t="n">
-        <v>45337</v>
+      <c r="C284" s="1" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -5594,11 +5594,11 @@
 (repas) dernières miettes</t>
         </is>
       </c>
-      <c r="C285" t="n">
-        <v>4</v>
-      </c>
-      <c r="D285" s="1" t="n">
-        <v>45337</v>
+      <c r="C285" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -5614,11 +5614,11 @@
 (jambe)trembler/flageoler</t>
         </is>
       </c>
-      <c r="C286" t="n">
-        <v>1</v>
-      </c>
-      <c r="D286" s="1" t="n">
-        <v>45337</v>
+      <c r="C286" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -5632,11 +5632,11 @@
           <t>petite quantité, poignée</t>
         </is>
       </c>
-      <c r="C287" t="n">
-        <v>1</v>
-      </c>
-      <c r="D287" s="1" t="n">
-        <v>45337</v>
+      <c r="C287" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -5651,11 +5651,11 @@
 en forme de toile d’araignée, (sac) en filet, (chaise) tressé</t>
         </is>
       </c>
-      <c r="C288" t="n">
-        <v>8</v>
-      </c>
-      <c r="D288" s="1" t="n">
+      <c r="C288" s="1" t="n">
         <v>45343</v>
+      </c>
+      <c r="D288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -5669,11 +5669,11 @@
           <t>involontairement, malgré soi</t>
         </is>
       </c>
-      <c r="C289" t="n">
-        <v>1</v>
-      </c>
-      <c r="D289" s="1" t="n">
-        <v>45337</v>
+      <c r="C289" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -5687,11 +5687,11 @@
           <t>étang, mare, bassin</t>
         </is>
       </c>
-      <c r="C290" t="n">
-        <v>1</v>
-      </c>
-      <c r="D290" s="1" t="n">
-        <v>45337</v>
+      <c r="C290" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -5705,11 +5705,11 @@
           <t>(seeking revenge) vindicatif</t>
         </is>
       </c>
-      <c r="C291" t="n">
-        <v>1</v>
-      </c>
-      <c r="D291" s="1" t="n">
-        <v>45337</v>
+      <c r="C291" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -5724,11 +5724,11 @@
 (bois) noyer</t>
         </is>
       </c>
-      <c r="C292" t="n">
-        <v>1</v>
-      </c>
-      <c r="D292" s="1" t="n">
-        <v>45337</v>
+      <c r="C292" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -5743,11 +5743,11 @@
 Ternish sth=salir/ternir</t>
         </is>
       </c>
-      <c r="C293" t="n">
-        <v>2</v>
-      </c>
-      <c r="D293" s="1" t="n">
-        <v>45337</v>
+      <c r="C293" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -5762,11 +5762,11 @@
 Lunge at sb/sth=se jeter/se ruer sur qqn/qqch</t>
         </is>
       </c>
-      <c r="C294" t="n">
-        <v>1</v>
-      </c>
-      <c r="D294" s="1" t="n">
-        <v>45337</v>
+      <c r="C294" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -5780,11 +5780,11 @@
           <t>Il se regarder en chien de faïence=se considerer avec méfiance</t>
         </is>
       </c>
-      <c r="C295" t="n">
-        <v>1</v>
-      </c>
-      <c r="D295" s="1" t="n">
-        <v>45337</v>
+      <c r="C295" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -5798,11 +5798,11 @@
           <t>pensivement/gentiment</t>
         </is>
       </c>
-      <c r="C296" t="n">
-        <v>1</v>
-      </c>
-      <c r="D296" s="1" t="n">
-        <v>45337</v>
+      <c r="C296" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -5816,11 +5816,11 @@
           <t>crépuscule/tombée de la nuit/du jour/nuit tombante</t>
         </is>
       </c>
-      <c r="C297" t="n">
-        <v>2</v>
-      </c>
-      <c r="D297" s="1" t="n">
-        <v>45337</v>
+      <c r="C297" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -5834,11 +5834,11 @@
           <t>Couleuvre d’eau</t>
         </is>
       </c>
-      <c r="C298" t="n">
-        <v>1</v>
-      </c>
-      <c r="D298" s="1" t="n">
-        <v>45337</v>
+      <c r="C298" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -5853,11 +5853,11 @@
 Une embardée/un écart</t>
         </is>
       </c>
-      <c r="C299" t="n">
-        <v>2</v>
-      </c>
-      <c r="D299" s="1" t="n">
-        <v>45337</v>
+      <c r="C299" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -5872,11 +5872,11 @@
 (personne) sombre/maussade/renfrogné</t>
         </is>
       </c>
-      <c r="C300" t="n">
-        <v>2</v>
-      </c>
-      <c r="D300" s="1" t="n">
-        <v>45337</v>
+      <c r="C300" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -5890,11 +5890,11 @@
           <t>faire une embardée, faire un écart</t>
         </is>
       </c>
-      <c r="C301" t="n">
-        <v>1</v>
-      </c>
-      <c r="D301" s="1" t="n">
-        <v>45337</v>
+      <c r="C301" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -5908,11 +5908,11 @@
           <t>stable/ferme/solide</t>
         </is>
       </c>
-      <c r="C302" t="n">
-        <v>1</v>
-      </c>
-      <c r="D302" s="1" t="n">
-        <v>45337</v>
+      <c r="C302" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -5927,11 +5927,11 @@
 (figuré)vautour/rapace</t>
         </is>
       </c>
-      <c r="C303" t="n">
-        <v>2</v>
-      </c>
-      <c r="D303" s="1" t="n">
-        <v>45337</v>
+      <c r="C303" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -5946,11 +5946,11 @@
 Hasten to do [sth]=s’empresser de faire qqch</t>
         </is>
       </c>
-      <c r="C304" t="n">
-        <v>1</v>
-      </c>
-      <c r="D304" s="1" t="n">
-        <v>45337</v>
+      <c r="C304" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -5965,11 +5965,11 @@
  Ce qui a approximativement la forme d'une spirale : Des volutes de fumée.</t>
         </is>
       </c>
-      <c r="C305" t="n">
-        <v>1</v>
-      </c>
-      <c r="D305" s="1" t="n">
-        <v>45337</v>
+      <c r="C305" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -5983,11 +5983,11 @@
           <t>lid=couvercle</t>
         </is>
       </c>
-      <c r="C306" t="n">
-        <v>1</v>
-      </c>
-      <c r="D306" s="1" t="n">
-        <v>45337</v>
+      <c r="C306" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -6001,11 +6001,11 @@
           <t>fathom=comprendre/(un mystère)percer</t>
         </is>
       </c>
-      <c r="C307" t="n">
-        <v>1</v>
-      </c>
-      <c r="D307" s="1" t="n">
-        <v>45337</v>
+      <c r="C307" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6019,11 +6019,11 @@
           <t>weave=(voiture)zigzaguer/slalomer</t>
         </is>
       </c>
-      <c r="C308" t="n">
-        <v>1</v>
-      </c>
-      <c r="D308" s="1" t="n">
-        <v>45337</v>
+      <c r="C308" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6038,11 +6038,11 @@
 over=sur</t>
         </is>
       </c>
-      <c r="C309" t="n">
-        <v>4</v>
-      </c>
-      <c r="D309" s="1" t="n">
-        <v>45337</v>
+      <c r="C309" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -6056,11 +6056,11 @@
           <t>The Grim, an omen of imminent death, has the appearance of an extremely large black dog</t>
         </is>
       </c>
-      <c r="C310" t="n">
-        <v>2</v>
-      </c>
-      <c r="D310" s="1" t="n">
-        <v>45337</v>
+      <c r="C310" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -6076,11 +6076,11 @@
 (discussion)dévier</t>
         </is>
       </c>
-      <c r="C311" t="n">
-        <v>1</v>
-      </c>
-      <c r="D311" s="1" t="n">
-        <v>45337</v>
+      <c r="C311" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6096,11 +6096,11 @@
 (coeur)palpiter/battre de façon irrégulière</t>
         </is>
       </c>
-      <c r="C312" t="n">
-        <v>4</v>
-      </c>
-      <c r="D312" s="1" t="n">
-        <v>45337</v>
+      <c r="C312" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -6115,11 +6115,11 @@
 Rafters (npl)=plafond</t>
         </is>
       </c>
-      <c r="C313" t="n">
-        <v>2</v>
-      </c>
-      <c r="D313" s="1" t="n">
-        <v>45337</v>
+      <c r="C313" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -6136,11 +6136,11 @@
 maudire</t>
         </is>
       </c>
-      <c r="C314" t="n">
-        <v>4</v>
-      </c>
-      <c r="D314" s="1" t="n">
+      <c r="C314" s="1" t="n">
         <v>45341</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -6156,11 +6156,11 @@
 Cushion sth=amortir</t>
         </is>
       </c>
-      <c r="C315" t="n">
-        <v>4</v>
-      </c>
-      <c r="D315" s="1" t="n">
-        <v>45337</v>
+      <c r="C315" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -6175,11 +6175,11 @@
 En émail</t>
         </is>
       </c>
-      <c r="C316" t="n">
-        <v>2</v>
-      </c>
-      <c r="D316" s="1" t="n">
+      <c r="C316" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -6193,11 +6193,11 @@
           <t>Google at sth/sb=regarder qnc avec des yeux ronds</t>
         </is>
       </c>
-      <c r="C317" t="n">
-        <v>1</v>
-      </c>
-      <c r="D317" s="1" t="n">
-        <v>45337</v>
+      <c r="C317" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -6213,11 +6213,11 @@
 (accident,illness)grave/(chute,rhume)sale</t>
         </is>
       </c>
-      <c r="C318" t="n">
-        <v>1</v>
-      </c>
-      <c r="D318" s="1" t="n">
-        <v>45337</v>
+      <c r="C318" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -6232,11 +6232,11 @@
 (ability to get angry)mauvais caractère/tempérament</t>
         </is>
       </c>
-      <c r="C319" t="n">
-        <v>2</v>
-      </c>
-      <c r="D319" s="1" t="n">
-        <v>45337</v>
+      <c r="C319" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -6252,11 +6252,11 @@
 Se retourner</t>
         </is>
       </c>
-      <c r="C320" t="n">
-        <v>1</v>
-      </c>
-      <c r="D320" s="1" t="n">
-        <v>45337</v>
+      <c r="C320" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -6274,11 +6274,11 @@
 (blade:not sharp)</t>
         </is>
       </c>
-      <c r="C321" t="n">
-        <v>8</v>
-      </c>
-      <c r="D321" s="1" t="n">
+      <c r="C321" s="1" t="n">
         <v>45344</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -6293,11 +6293,11 @@
 gangrener</t>
         </is>
       </c>
-      <c r="C322" t="n">
-        <v>1</v>
-      </c>
-      <c r="D322" s="1" t="n">
-        <v>45338</v>
+      <c r="C322" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -6311,11 +6311,11 @@
           <t>égaré</t>
         </is>
       </c>
-      <c r="C323" t="n">
-        <v>1</v>
-      </c>
-      <c r="D323" s="1" t="n">
-        <v>45337</v>
+      <c r="C323" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -6331,11 +6331,11 @@
 Dwell on S/dwell upon=(be preoccupied with)s’attarder sur/penser sans cesse à</t>
         </is>
       </c>
-      <c r="C324" t="n">
-        <v>2</v>
-      </c>
-      <c r="D324" s="1" t="n">
-        <v>45337</v>
+      <c r="C324" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -6350,11 +6350,11 @@
 (unwise, without thought)imprudent/irréfléchi</t>
         </is>
       </c>
-      <c r="C325" t="n">
-        <v>2</v>
-      </c>
-      <c r="D325" s="1" t="n">
-        <v>45337</v>
+      <c r="C325" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -6369,11 +6369,11 @@
 galling=énervant/irritant/exaspérant/rageant</t>
         </is>
       </c>
-      <c r="C326" t="n">
-        <v>1</v>
-      </c>
-      <c r="D326" s="1" t="n">
-        <v>45337</v>
+      <c r="C326" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -6388,11 +6388,11 @@
 Vault over sth=sauter par dessus</t>
         </is>
       </c>
-      <c r="C327" t="n">
-        <v>1</v>
-      </c>
-      <c r="D327" s="1" t="n">
-        <v>45337</v>
+      <c r="C327" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -6406,11 +6406,11 @@
           <t>Wend your way=se faufiler</t>
         </is>
       </c>
-      <c r="C328" t="n">
-        <v>1</v>
-      </c>
-      <c r="D328" s="1" t="n">
-        <v>45337</v>
+      <c r="C328" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -6424,11 +6424,11 @@
           <t>wrought(molded, shaped or manufactured)=forgé</t>
         </is>
       </c>
-      <c r="C329" t="n">
-        <v>1</v>
-      </c>
-      <c r="D329" s="1" t="n">
-        <v>45337</v>
+      <c r="C329" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -6443,11 +6443,11 @@
 (prey)gibier/proie</t>
         </is>
       </c>
-      <c r="C330" t="n">
-        <v>1</v>
-      </c>
-      <c r="D330" s="1" t="n">
-        <v>45337</v>
+      <c r="C330" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -6461,11 +6461,11 @@
           <t>foncer/se précipiter/(aller, partir, sortir, etc) en courant</t>
         </is>
       </c>
-      <c r="C331" t="n">
-        <v>2</v>
-      </c>
-      <c r="D331" s="1" t="n">
+      <c r="C331" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -6480,11 +6480,11 @@
 (figures:exaggerated)gonflé</t>
         </is>
       </c>
-      <c r="C332" t="n">
-        <v>1</v>
-      </c>
-      <c r="D332" s="1" t="n">
-        <v>45337</v>
+      <c r="C332" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -6498,11 +6498,11 @@
           <t>(worn, shabby)élimé/usé/râpé</t>
         </is>
       </c>
-      <c r="C333" t="n">
-        <v>2</v>
-      </c>
-      <c r="D333" s="1" t="n">
-        <v>45337</v>
+      <c r="C333" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -6517,11 +6517,11 @@
 (feel embarrassed)être embarrassé/se sentir mal</t>
         </is>
       </c>
-      <c r="C334" t="n">
-        <v>1</v>
-      </c>
-      <c r="D334" s="1" t="n">
-        <v>45337</v>
+      <c r="C334" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -6535,11 +6535,11 @@
           <t>Lancer un regard noir à/regarder qqn de travers</t>
         </is>
       </c>
-      <c r="C335" t="n">
-        <v>1</v>
-      </c>
-      <c r="D335" s="1" t="n">
-        <v>45337</v>
+      <c r="C335" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -6553,11 +6553,11 @@
           <t>pur</t>
         </is>
       </c>
-      <c r="C336" t="n">
-        <v>2</v>
-      </c>
-      <c r="D336" s="1" t="n">
-        <v>45337</v>
+      <c r="C336" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -6573,11 +6573,11 @@
 (odeur) infect</t>
         </is>
       </c>
-      <c r="C337" t="n">
-        <v>1</v>
-      </c>
-      <c r="D337" s="1" t="n">
-        <v>45337</v>
+      <c r="C337" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -6591,11 +6591,11 @@
           <t>Regard noir</t>
         </is>
       </c>
-      <c r="C338" t="n">
-        <v>1</v>
-      </c>
-      <c r="D338" s="1" t="n">
-        <v>45337</v>
+      <c r="C338" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -6609,11 +6609,11 @@
           <t>Apaisant, réconfortant</t>
         </is>
       </c>
-      <c r="C339" t="n">
-        <v>2</v>
-      </c>
-      <c r="D339" s="1" t="n">
-        <v>45338</v>
+      <c r="C339" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -6627,11 +6627,11 @@
           <t>Envier, jalouser</t>
         </is>
       </c>
-      <c r="C340" t="n">
-        <v>2</v>
-      </c>
-      <c r="D340" s="1" t="n">
-        <v>45337</v>
+      <c r="C340" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -6645,11 +6645,11 @@
           <t>Esquisser un sourire</t>
         </is>
       </c>
-      <c r="C341" t="n">
-        <v>4</v>
-      </c>
-      <c r="D341" s="1" t="n">
-        <v>45337</v>
+      <c r="C341" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -6663,11 +6663,11 @@
           <t>(assis)Être avachi/(debout)avoir le dos voûté</t>
         </is>
       </c>
-      <c r="C342" t="n">
-        <v>4</v>
-      </c>
-      <c r="D342" s="1" t="n">
-        <v>45337</v>
+      <c r="C342" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -6681,11 +6681,11 @@
           <t>(tempête) se calmer, (bruit) baisser, diminuer</t>
         </is>
       </c>
-      <c r="C343" t="n">
-        <v>2</v>
-      </c>
-      <c r="D343" s="1" t="n">
-        <v>45338</v>
+      <c r="C343" s="1" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -6702,11 +6702,11 @@
 (la colère) apaiser</t>
         </is>
       </c>
-      <c r="C344" t="n">
-        <v>2</v>
-      </c>
-      <c r="D344" s="1" t="n">
-        <v>45337</v>
+      <c r="C344" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -6721,11 +6721,11 @@
 sinistre, funeste</t>
         </is>
       </c>
-      <c r="C345" t="n">
-        <v>2</v>
-      </c>
-      <c r="D345" s="1" t="n">
+      <c r="C345" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -6739,11 +6739,11 @@
           <t>frotter, récurer</t>
         </is>
       </c>
-      <c r="C346" t="n">
-        <v>1</v>
-      </c>
-      <c r="D346" s="1" t="n">
-        <v>45337</v>
+      <c r="C346" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -6760,11 +6760,11 @@
 (un livre) chercher dans, examiner</t>
         </is>
       </c>
-      <c r="C347" t="n">
-        <v>1</v>
-      </c>
-      <c r="D347" s="1" t="n">
-        <v>45337</v>
+      <c r="C347" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -6778,11 +6778,11 @@
           <t>coudre</t>
         </is>
       </c>
-      <c r="C348" t="n">
-        <v>2</v>
-      </c>
-      <c r="D348" s="1" t="n">
-        <v>45337</v>
+      <c r="C348" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -6796,11 +6796,11 @@
           <t>cousu</t>
         </is>
       </c>
-      <c r="C349" t="n">
-        <v>1</v>
-      </c>
-      <c r="D349" s="1" t="n">
-        <v>45337</v>
+      <c r="C349" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -6816,11 +6816,11 @@
 tomber dans les pommes</t>
         </is>
       </c>
-      <c r="C350" t="n">
-        <v>8</v>
-      </c>
-      <c r="D350" s="1" t="n">
+      <c r="C350" s="1" t="n">
         <v>45343</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -6834,11 +6834,11 @@
           <t>(light) faible, (image) flou, passé, (odeur) léger, (son) faible, léger, (souvenir) vague</t>
         </is>
       </c>
-      <c r="C351" t="n">
-        <v>1</v>
-      </c>
-      <c r="D351" s="1" t="n">
-        <v>45337</v>
+      <c r="C351" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -6852,11 +6852,11 @@
           <t>point de vue</t>
         </is>
       </c>
-      <c r="C352" t="n">
-        <v>1</v>
-      </c>
-      <c r="D352" s="1" t="n">
-        <v>45337</v>
+      <c r="C352" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D352" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -6870,11 +6870,11 @@
           <t>rayon, rayon de lumiére</t>
         </is>
       </c>
-      <c r="C353" t="n">
-        <v>2</v>
-      </c>
-      <c r="D353" s="1" t="n">
-        <v>45337</v>
+      <c r="C353" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D353" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -6888,11 +6888,11 @@
           <t>pencher (lean)</t>
         </is>
       </c>
-      <c r="C354" t="n">
-        <v>2</v>
-      </c>
-      <c r="D354" s="1" t="n">
-        <v>45337</v>
+      <c r="C354" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -6906,11 +6906,11 @@
           <t>cottage, maison</t>
         </is>
       </c>
-      <c r="C355" t="n">
-        <v>1</v>
-      </c>
-      <c r="D355" s="1" t="n">
-        <v>45337</v>
+      <c r="C355" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -6925,11 +6925,11 @@
 (logement) bien tenu</t>
         </is>
       </c>
-      <c r="C356" t="n">
-        <v>4</v>
-      </c>
-      <c r="D356" s="1" t="n">
+      <c r="C356" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -6943,11 +6943,11 @@
           <t>soigné, soigneux, élégant</t>
         </is>
       </c>
-      <c r="C357" t="n">
-        <v>1</v>
-      </c>
-      <c r="D357" s="1" t="n">
-        <v>45337</v>
+      <c r="C357" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -6963,11 +6963,11 @@
 escroc</t>
         </is>
       </c>
-      <c r="C358" t="n">
-        <v>4</v>
-      </c>
-      <c r="D358" s="1" t="n">
-        <v>45337</v>
+      <c r="C358" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -6982,11 +6982,11 @@
 punaiser, fixer avec des punaises</t>
         </is>
       </c>
-      <c r="C359" t="n">
-        <v>1</v>
-      </c>
-      <c r="D359" s="1" t="n">
-        <v>45337</v>
+      <c r="C359" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -7000,11 +7000,11 @@
           <t>couchette</t>
         </is>
       </c>
-      <c r="C360" t="n">
-        <v>2</v>
-      </c>
-      <c r="D360" s="1" t="n">
-        <v>45337</v>
+      <c r="C360" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -7018,11 +7018,11 @@
           <t>accoster</t>
         </is>
       </c>
-      <c r="C361" t="n">
-        <v>1</v>
-      </c>
-      <c r="D361" s="1" t="n">
-        <v>45337</v>
+      <c r="C361" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -7036,11 +7036,11 @@
           <t>ranger</t>
         </is>
       </c>
-      <c r="C362" t="n">
-        <v>2</v>
-      </c>
-      <c r="D362" s="1" t="n">
-        <v>45338</v>
+      <c r="C362" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -7054,11 +7054,11 @@
           <t>cloué</t>
         </is>
       </c>
-      <c r="C363" t="n">
-        <v>1</v>
-      </c>
-      <c r="D363" s="1" t="n">
-        <v>45337</v>
+      <c r="C363" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -7075,11 +7075,11 @@
 (cheveux, barbe) hirsute</t>
         </is>
       </c>
-      <c r="C364" t="n">
-        <v>1</v>
-      </c>
-      <c r="D364" s="1" t="n">
-        <v>45337</v>
+      <c r="C364" s="1" t="n">
+        <v>45339</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -7093,11 +7093,11 @@
           <t>soigné, élégant</t>
         </is>
       </c>
-      <c r="C365" t="n">
-        <v>1</v>
-      </c>
-      <c r="D365" s="1" t="n">
-        <v>45337</v>
+      <c r="C365" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -7113,11 +7113,11 @@
 (familier) geignard</t>
         </is>
       </c>
-      <c r="C366" t="n">
-        <v>1</v>
-      </c>
-      <c r="D366" s="1" t="n">
-        <v>45337</v>
+      <c r="C366" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -7132,11 +7132,11 @@
 (personne) particulier, étrange, bizarre</t>
         </is>
       </c>
-      <c r="C367" t="n">
-        <v>2</v>
-      </c>
-      <c r="D367" s="1" t="n">
-        <v>45337</v>
+      <c r="C367" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -7150,11 +7150,11 @@
           <t>établi</t>
         </is>
       </c>
-      <c r="C368" t="n">
-        <v>1</v>
-      </c>
-      <c r="D368" s="1" t="n">
-        <v>45337</v>
+      <c r="C368" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -7170,11 +7170,11 @@
 pondre</t>
         </is>
       </c>
-      <c r="C369" t="n">
-        <v>2</v>
-      </c>
-      <c r="D369" s="1" t="n">
-        <v>45337</v>
+      <c r="C369" s="1" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -7190,11 +7190,11 @@
 (familier) dégringoler, valdinguer</t>
         </is>
       </c>
-      <c r="C370" t="n">
-        <v>1</v>
-      </c>
-      <c r="D370" s="1" t="n">
-        <v>45337</v>
+      <c r="C370" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7209,11 +7209,11 @@
 (personne, tête en avant) faire une culbute</t>
         </is>
       </c>
-      <c r="C371" t="n">
-        <v>1</v>
-      </c>
-      <c r="D371" s="1" t="n">
-        <v>45337</v>
+      <c r="C371" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -7227,11 +7227,11 @@
           <t>se préparer (à faire qqch)</t>
         </is>
       </c>
-      <c r="C372" t="n">
-        <v>2</v>
-      </c>
-      <c r="D372" s="1" t="n">
-        <v>45337</v>
+      <c r="C372" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -7245,11 +7245,11 @@
           <t>en désordre, encombré</t>
         </is>
       </c>
-      <c r="C373" t="n">
-        <v>4</v>
-      </c>
-      <c r="D373" s="1" t="n">
-        <v>45337</v>
+      <c r="C373" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -7263,11 +7263,11 @@
           <t>incurvé, courbé, en forme d’arc</t>
         </is>
       </c>
-      <c r="C374" t="n">
-        <v>2</v>
-      </c>
-      <c r="D374" s="1" t="n">
-        <v>45337</v>
+      <c r="C374" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -7282,11 +7282,11 @@
 (bon sens) présence d’esprit</t>
         </is>
       </c>
-      <c r="C375" t="n">
-        <v>1</v>
-      </c>
-      <c r="D375" s="1" t="n">
-        <v>45337</v>
+      <c r="C375" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -7300,11 +7300,11 @@
           <t>plateau à thé</t>
         </is>
       </c>
-      <c r="C376" t="n">
-        <v>1</v>
-      </c>
-      <c r="D376" s="1" t="n">
-        <v>45337</v>
+      <c r="C376" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -7320,11 +7320,11 @@
 (sauce) grumeau</t>
         </is>
       </c>
-      <c r="C377" t="n">
-        <v>1</v>
-      </c>
-      <c r="D377" s="1" t="n">
-        <v>45337</v>
+      <c r="C377" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -7338,11 +7338,11 @@
           <t>patauger, traverser à gué</t>
         </is>
       </c>
-      <c r="C378" t="n">
-        <v>2</v>
-      </c>
-      <c r="D378" s="1" t="n">
-        <v>45337</v>
+      <c r="C378" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -7357,11 +7357,11 @@
 (figurative, work through sth tedious)</t>
         </is>
       </c>
-      <c r="C379" t="n">
-        <v>1</v>
-      </c>
-      <c r="D379" s="1" t="n">
-        <v>45337</v>
+      <c r="C379" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -7375,11 +7375,11 @@
           <t>traitre</t>
         </is>
       </c>
-      <c r="C380" t="n">
-        <v>1</v>
-      </c>
-      <c r="D380" s="1" t="n">
-        <v>45337</v>
+      <c r="C380" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -7393,11 +7393,11 @@
           <t>-sodden (ivre de qqch) vin ici</t>
         </is>
       </c>
-      <c r="C381" t="n">
-        <v>1</v>
-      </c>
-      <c r="D381" s="1" t="n">
-        <v>45337</v>
+      <c r="C381" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -7411,11 +7411,11 @@
           <t>trempé, (sol) détrempé</t>
         </is>
       </c>
-      <c r="C382" t="n">
-        <v>8</v>
-      </c>
-      <c r="D382" s="1" t="n">
-        <v>45337</v>
+      <c r="C382" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="D382" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/time spacing/words_V1.0.0.xlsx
+++ b/time spacing/words_V1.0.0.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="C1" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D1" t="n">
         <v>2</v>
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45338</v>
+        <v>45373</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45341</v>
+        <v>45362</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45338</v>
+        <v>45351</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D21" t="n">
         <v>7</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45338</v>
+        <v>45373</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45338</v>
+        <v>45351</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D33" t="n">
         <v>3</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45338</v>
+        <v>45361</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D44" t="n">
         <v>7</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D46" t="n">
         <v>4</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="D48" t="n">
         <v>4</v>
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D52" t="n">
         <v>3</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="D55" t="n">
         <v>3</v>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D58" t="n">
         <v>7</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="D59" t="n">
         <v>3</v>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D72" t="n">
         <v>7</v>
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D85" t="n">
         <v>3</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45338</v>
+        <v>45351</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D90" t="n">
         <v>4</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D92" t="n">
         <v>4</v>
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D93" t="n">
         <v>3</v>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D100" t="n">
         <v>4</v>
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D102" t="n">
         <v>3</v>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="D103" t="n">
         <v>3</v>
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45338</v>
+        <v>45361</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45338</v>
+        <v>45350</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45338</v>
+        <v>45375</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D108" t="n">
         <v>3</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D109" t="n">
         <v>3</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D111" t="n">
         <v>3</v>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="D112" t="n">
         <v>4</v>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="D113" t="n">
         <v>3</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D114" t="n">
         <v>4</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D116" t="n">
         <v>3</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D117" t="n">
         <v>3</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D120" t="n">
         <v>4</v>
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D121" t="n">
         <v>3</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D123" t="n">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D125" t="n">
         <v>3</v>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45345</v>
+        <v>45362</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D134" t="n">
         <v>3</v>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D135" t="n">
         <v>3</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D137" t="n">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D138" t="n">
         <v>2</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="D140" t="n">
         <v>3</v>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D141" t="n">
         <v>3</v>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D142" t="n">
         <v>2</v>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D144" t="n">
         <v>2</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D147" t="n">
         <v>2</v>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D151" t="n">
         <v>3</v>
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D152" t="n">
         <v>2</v>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D154" t="n">
         <v>2</v>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D156" t="n">
         <v>2</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="D157" t="n">
         <v>3</v>
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D159" t="n">
         <v>3</v>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D160" t="n">
         <v>2</v>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D161" t="n">
         <v>2</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D163" t="n">
         <v>3</v>
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D164" t="n">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D168" t="n">
         <v>3</v>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45344</v>
+        <v>45362</v>
       </c>
       <c r="D169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D172" t="n">
         <v>2</v>
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D173" t="n">
         <v>3</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D175" t="n">
         <v>3</v>
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D176" t="n">
         <v>3</v>
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -3647,10 +3647,10 @@
         </is>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45339</v>
+        <v>45348</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D179" t="n">
         <v>2</v>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D180" t="n">
         <v>3</v>
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45341</v>
+        <v>45362</v>
       </c>
       <c r="D181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D182" t="n">
         <v>2</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D184" t="n">
         <v>2</v>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D185" t="n">
         <v>3</v>
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D186" t="n">
         <v>3</v>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D187" t="n">
         <v>3</v>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D188" t="n">
         <v>2</v>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D189" t="n">
         <v>2</v>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45338</v>
+        <v>45361</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D191" t="n">
         <v>3</v>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D192" t="n">
         <v>3</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="D193" t="n">
         <v>3</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D194" t="n">
         <v>3</v>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D195" t="n">
         <v>3</v>
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D196" t="n">
         <v>2</v>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="D198" t="n">
         <v>3</v>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D201" t="n">
         <v>3</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D202" t="n">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D209" t="n">
         <v>3</v>
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D210" t="n">
         <v>2</v>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45339</v>
+        <v>45362</v>
       </c>
       <c r="D211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="D212" t="n">
         <v>3</v>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D213" t="n">
         <v>2</v>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45338</v>
+        <v>45350</v>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D218" t="n">
         <v>3</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="D219" t="n">
         <v>3</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="D221" t="n">
         <v>3</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -4480,10 +4480,10 @@
         </is>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -4499,7 +4499,7 @@
         </is>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D225" t="n">
         <v>2</v>
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D226" t="n">
         <v>2</v>
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="D227" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228">
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45339</v>
+        <v>45361</v>
       </c>
       <c r="D228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D229" t="n">
         <v>2</v>
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D230" t="n">
         <v>3</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D233" t="n">
         <v>2</v>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D234" t="n">
         <v>2</v>
@@ -4683,7 +4683,7 @@
         </is>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D235" t="n">
         <v>3</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D236" t="n">
         <v>3</v>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D238" t="n">
         <v>2</v>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D239" t="n">
         <v>2</v>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="D240" t="n">
         <v>3</v>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D241" t="n">
         <v>3</v>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D242" t="n">
         <v>2</v>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D243" t="n">
         <v>3</v>
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D246" t="n">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -4918,10 +4918,10 @@
         </is>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45338</v>
+        <v>45349</v>
       </c>
       <c r="D251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D253" t="n">
         <v>2</v>
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="D255" t="n">
         <v>3</v>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D256" t="n">
         <v>3</v>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D258" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D259" t="n">
         <v>3</v>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D260" t="n">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D261" t="n">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D265" t="n">
         <v>2</v>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D266" t="n">
         <v>3</v>
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D267" t="n">
         <v>2</v>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D268" t="n">
         <v>3</v>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D269" t="n">
         <v>2</v>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D270" t="n">
         <v>3</v>
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D271" t="n">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -5464,10 +5464,10 @@
         </is>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D280" t="n">
         <v>2</v>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D281" t="n">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D282" t="n">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D284" t="n">
         <v>3</v>
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D285" t="n">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D286" t="n">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="D288" t="n">
         <v>3</v>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D289" t="n">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D293" t="n">
         <v>2</v>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         </is>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         </is>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D296" t="n">
         <v>0</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D297" t="n">
         <v>2</v>
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D299" t="n">
         <v>2</v>
@@ -5873,7 +5873,7 @@
         </is>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D300" t="n">
         <v>2</v>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D301" t="n">
         <v>0</v>
@@ -5909,10 +5909,10 @@
         </is>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -5928,10 +5928,10 @@
         </is>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45338</v>
+        <v>45351</v>
       </c>
       <c r="D303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D304" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D305" t="n">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D307" t="n">
         <v>0</v>
@@ -6020,7 +6020,7 @@
         </is>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D308" t="n">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D309" t="n">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D310" t="n">
         <v>2</v>
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D312" t="n">
         <v>3</v>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D313" t="n">
         <v>2</v>
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="D314" t="n">
         <v>3</v>
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D315" t="n">
         <v>3</v>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D316" t="n">
         <v>2</v>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D319" t="n">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D320" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="D321" t="n">
         <v>3</v>
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D324" t="n">
         <v>2</v>
@@ -6351,7 +6351,7 @@
         </is>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D325" t="n">
         <v>2</v>
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D326" t="n">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D330" t="n">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D331" t="n">
         <v>2</v>
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D332" t="n">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D333" t="n">
         <v>2</v>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D334" t="n">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D335" t="n">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D336" t="n">
         <v>2</v>
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D337" t="n">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D339" t="n">
         <v>2</v>
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D340" t="n">
         <v>2</v>
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D341" t="n">
         <v>3</v>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D342" t="n">
         <v>3</v>
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45342</v>
+        <v>45347</v>
       </c>
       <c r="D343" t="n">
         <v>3</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45338</v>
+        <v>45350</v>
       </c>
       <c r="D344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D345" t="n">
         <v>2</v>
@@ -6740,7 +6740,7 @@
         </is>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D346" t="n">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D347" t="n">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D348" t="n">
         <v>2</v>
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D349" t="n">
         <v>0</v>
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="D350" t="n">
         <v>3</v>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D352" t="n">
         <v>2</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D353" t="n">
         <v>2</v>
@@ -6889,10 +6889,10 @@
         </is>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D355" t="n">
         <v>0</v>
@@ -6926,10 +6926,10 @@
         </is>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45340</v>
+        <v>45362</v>
       </c>
       <c r="D356" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357">
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D357" t="n">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D358" t="n">
         <v>3</v>
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D360" t="n">
         <v>2</v>
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D362" t="n">
         <v>2</v>
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -7133,10 +7133,10 @@
         </is>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45338</v>
+        <v>45350</v>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="D368" t="n">
         <v>2</v>
@@ -7171,10 +7171,10 @@
         </is>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="D369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -7191,7 +7191,7 @@
         </is>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         </is>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="D372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D373" t="n">
         <v>3</v>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D374" t="n">
         <v>2</v>
@@ -7283,7 +7283,7 @@
         </is>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D375" t="n">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D376" t="n">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D377" t="n">
         <v>0</v>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45338</v>
+        <v>45350</v>
       </c>
       <c r="D378" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -7376,7 +7376,7 @@
         </is>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D380" t="n">
         <v>0</v>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45338</v>
+        <v>45347</v>
       </c>
       <c r="D381" t="n">
         <v>0</v>
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45338</v>
+        <v>45361</v>
       </c>
       <c r="D382" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
